--- a/output_K.xlsx
+++ b/output_K.xlsx
@@ -5,16 +5,19 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\N9635226\AppData\Local\Temp\MicrosoftEdgeDownloads\ad398750-6a8c-4d0d-bbb1-c189438b9ccd\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\N9635226\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{947A9E1A-D7D9-4856-915E-B33D6AA8C62F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70250EB8-BC83-47AB-BB6D-48EF33C90AD6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14016" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$F$66</definedName>
+  </definedNames>
   <calcPr calcId="0"/>
 </workbook>
 </file>
@@ -130,9 +133,6 @@
     <t>01:48:00</t>
   </si>
   <si>
-    <t>ERPLZI</t>
-  </si>
-  <si>
     <t>09:45:00</t>
   </si>
   <si>
@@ -175,9 +175,6 @@
     <t>15:43:00</t>
   </si>
   <si>
-    <t>ERPLS2</t>
-  </si>
-  <si>
     <t>01:22:00</t>
   </si>
   <si>
@@ -244,10 +241,19 @@
     <t>10:00:00</t>
   </si>
   <si>
-    <t>DAPLD</t>
-  </si>
-  <si>
     <t>17:58:00</t>
+  </si>
+  <si>
+    <t>16_ERPLZI_2km</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>10_ERPLS2_3km</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>10_DAPLD_6km</t>
+    <phoneticPr fontId="2"/>
   </si>
 </sst>
 </file>
@@ -636,13 +642,13 @@
   <dimension ref="A1:F66"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="F35" sqref="F35"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="17" style="3" customWidth="1"/>
-    <col min="4" max="4" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="25.5546875" customWidth="1"/>
     <col min="5" max="5" width="11.21875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="15.109375" bestFit="1" customWidth="1"/>
   </cols>
@@ -1155,13 +1161,13 @@
         <v>35</v>
       </c>
       <c r="C26" t="s">
+        <v>36</v>
+      </c>
+      <c r="D26" t="s">
+        <v>73</v>
+      </c>
+      <c r="E26" t="s">
         <v>37</v>
-      </c>
-      <c r="D26" t="s">
-        <v>36</v>
-      </c>
-      <c r="E26" t="s">
-        <v>38</v>
       </c>
       <c r="F26" t="s">
         <v>9</v>
@@ -1172,19 +1178,19 @@
         <v>45434</v>
       </c>
       <c r="B27" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C27" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D27" t="s">
-        <v>36</v>
+        <v>73</v>
       </c>
       <c r="E27" t="s">
+        <v>39</v>
+      </c>
+      <c r="F27" t="s">
         <v>40</v>
-      </c>
-      <c r="F27" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.2">
@@ -1192,19 +1198,19 @@
         <v>45434</v>
       </c>
       <c r="B28" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C28" t="s">
+        <v>41</v>
+      </c>
+      <c r="D28" t="s">
+        <v>73</v>
+      </c>
+      <c r="E28" t="s">
+        <v>39</v>
+      </c>
+      <c r="F28" t="s">
         <v>42</v>
-      </c>
-      <c r="D28" t="s">
-        <v>36</v>
-      </c>
-      <c r="E28" t="s">
-        <v>40</v>
-      </c>
-      <c r="F28" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.2">
@@ -1215,16 +1221,16 @@
         <v>34</v>
       </c>
       <c r="C29" t="s">
+        <v>43</v>
+      </c>
+      <c r="D29" t="s">
+        <v>73</v>
+      </c>
+      <c r="E29" t="s">
         <v>44</v>
       </c>
-      <c r="D29" t="s">
-        <v>36</v>
-      </c>
-      <c r="E29" t="s">
+      <c r="F29" t="s">
         <v>45</v>
-      </c>
-      <c r="F29" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.2">
@@ -1232,19 +1238,19 @@
         <v>45435</v>
       </c>
       <c r="B30" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C30" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D30" t="s">
-        <v>36</v>
+        <v>73</v>
       </c>
       <c r="E30" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F30" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.2">
@@ -1255,16 +1261,16 @@
         <v>34</v>
       </c>
       <c r="C31" t="s">
+        <v>41</v>
+      </c>
+      <c r="D31" t="s">
+        <v>73</v>
+      </c>
+      <c r="E31" t="s">
+        <v>39</v>
+      </c>
+      <c r="F31" t="s">
         <v>42</v>
-      </c>
-      <c r="D31" t="s">
-        <v>36</v>
-      </c>
-      <c r="E31" t="s">
-        <v>40</v>
-      </c>
-      <c r="F31" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.2">
@@ -1278,13 +1284,13 @@
         <v>0.4291666666666667</v>
       </c>
       <c r="D32" t="s">
-        <v>36</v>
+        <v>73</v>
       </c>
       <c r="E32" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F32" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.2">
@@ -1298,13 +1304,13 @@
         <v>0.99930555555555556</v>
       </c>
       <c r="D33" t="s">
-        <v>36</v>
+        <v>73</v>
       </c>
       <c r="E33" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F33" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.2">
@@ -1318,13 +1324,13 @@
         <v>0.3215277777777778</v>
       </c>
       <c r="D34" t="s">
-        <v>36</v>
+        <v>73</v>
       </c>
       <c r="E34" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F34" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.2">
@@ -1338,13 +1344,13 @@
         <v>0.75</v>
       </c>
       <c r="D35" t="s">
-        <v>36</v>
+        <v>73</v>
       </c>
       <c r="E35" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F35" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.2">
@@ -1352,19 +1358,19 @@
         <v>45437</v>
       </c>
       <c r="B36" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C36" t="s">
         <v>31</v>
       </c>
       <c r="D36" t="s">
-        <v>36</v>
+        <v>73</v>
       </c>
       <c r="E36" t="s">
+        <v>39</v>
+      </c>
+      <c r="F36" t="s">
         <v>40</v>
-      </c>
-      <c r="F36" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.2">
@@ -1375,13 +1381,13 @@
         <v>31</v>
       </c>
       <c r="C37" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D37" t="s">
-        <v>36</v>
+        <v>73</v>
       </c>
       <c r="E37" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F37" t="s">
         <v>9</v>
@@ -1395,13 +1401,13 @@
         <v>34</v>
       </c>
       <c r="C38" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D38" t="s">
-        <v>36</v>
+        <v>73</v>
       </c>
       <c r="E38" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F38" t="s">
         <v>9</v>
@@ -1412,10 +1418,10 @@
         <v>45438</v>
       </c>
       <c r="B39" t="s">
+        <v>48</v>
+      </c>
+      <c r="C39" t="s">
         <v>49</v>
-      </c>
-      <c r="C39" t="s">
-        <v>50</v>
       </c>
       <c r="D39" t="s">
         <v>32</v>
@@ -1432,16 +1438,16 @@
         <v>45438</v>
       </c>
       <c r="B40" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C40" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D40" t="s">
-        <v>51</v>
+        <v>74</v>
       </c>
       <c r="E40" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F40" t="s">
         <v>9</v>
@@ -1455,13 +1461,13 @@
         <v>34</v>
       </c>
       <c r="C41" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D41" t="s">
-        <v>51</v>
+        <v>74</v>
       </c>
       <c r="E41" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F41" t="s">
         <v>9</v>
@@ -1472,19 +1478,19 @@
         <v>45439</v>
       </c>
       <c r="B42" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C42" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D42" t="s">
-        <v>51</v>
+        <v>74</v>
       </c>
       <c r="E42" t="s">
+        <v>39</v>
+      </c>
+      <c r="F42" t="s">
         <v>40</v>
-      </c>
-      <c r="F42" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.2">
@@ -1492,19 +1498,19 @@
         <v>45439</v>
       </c>
       <c r="B43" t="s">
+        <v>51</v>
+      </c>
+      <c r="C43" t="s">
+        <v>52</v>
+      </c>
+      <c r="D43" t="s">
+        <v>74</v>
+      </c>
+      <c r="E43" t="s">
         <v>53</v>
       </c>
-      <c r="C43" t="s">
+      <c r="F43" t="s">
         <v>54</v>
-      </c>
-      <c r="D43" t="s">
-        <v>51</v>
-      </c>
-      <c r="E43" t="s">
-        <v>55</v>
-      </c>
-      <c r="F43" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.2">
@@ -1512,19 +1518,19 @@
         <v>45439</v>
       </c>
       <c r="B44" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C44" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D44" t="s">
-        <v>51</v>
+        <v>74</v>
       </c>
       <c r="E44" t="s">
+        <v>39</v>
+      </c>
+      <c r="F44" t="s">
         <v>40</v>
-      </c>
-      <c r="F44" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.2">
@@ -1532,19 +1538,19 @@
         <v>45439</v>
       </c>
       <c r="B45" t="s">
+        <v>55</v>
+      </c>
+      <c r="C45" t="s">
+        <v>56</v>
+      </c>
+      <c r="D45" t="s">
+        <v>74</v>
+      </c>
+      <c r="E45" t="s">
+        <v>39</v>
+      </c>
+      <c r="F45" t="s">
         <v>57</v>
-      </c>
-      <c r="C45" t="s">
-        <v>58</v>
-      </c>
-      <c r="D45" t="s">
-        <v>51</v>
-      </c>
-      <c r="E45" t="s">
-        <v>40</v>
-      </c>
-      <c r="F45" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.2">
@@ -1552,19 +1558,19 @@
         <v>45439</v>
       </c>
       <c r="B46" t="s">
+        <v>56</v>
+      </c>
+      <c r="C46" t="s">
         <v>58</v>
       </c>
-      <c r="C46" t="s">
-        <v>60</v>
-      </c>
       <c r="D46" t="s">
-        <v>51</v>
+        <v>74</v>
       </c>
       <c r="E46" t="s">
+        <v>39</v>
+      </c>
+      <c r="F46" t="s">
         <v>40</v>
-      </c>
-      <c r="F46" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.2">
@@ -1572,19 +1578,19 @@
         <v>45439</v>
       </c>
       <c r="B47" t="s">
+        <v>58</v>
+      </c>
+      <c r="C47" t="s">
+        <v>59</v>
+      </c>
+      <c r="D47" t="s">
+        <v>74</v>
+      </c>
+      <c r="E47" t="s">
+        <v>39</v>
+      </c>
+      <c r="F47" t="s">
         <v>60</v>
-      </c>
-      <c r="C47" t="s">
-        <v>61</v>
-      </c>
-      <c r="D47" t="s">
-        <v>51</v>
-      </c>
-      <c r="E47" t="s">
-        <v>40</v>
-      </c>
-      <c r="F47" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.2">
@@ -1592,19 +1598,19 @@
         <v>45439</v>
       </c>
       <c r="B48" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C48" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D48" t="s">
-        <v>51</v>
+        <v>74</v>
       </c>
       <c r="E48" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F48" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.2">
@@ -1615,16 +1621,16 @@
         <v>34</v>
       </c>
       <c r="C49" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D49" t="s">
-        <v>51</v>
+        <v>74</v>
       </c>
       <c r="E49" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F49" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.2">
@@ -1632,19 +1638,19 @@
         <v>45440</v>
       </c>
       <c r="B50" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C50" t="s">
+        <v>41</v>
+      </c>
+      <c r="D50" t="s">
+        <v>74</v>
+      </c>
+      <c r="E50" t="s">
+        <v>39</v>
+      </c>
+      <c r="F50" t="s">
         <v>42</v>
-      </c>
-      <c r="D50" t="s">
-        <v>51</v>
-      </c>
-      <c r="E50" t="s">
-        <v>40</v>
-      </c>
-      <c r="F50" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.2">
@@ -1655,16 +1661,16 @@
         <v>34</v>
       </c>
       <c r="C51" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D51" t="s">
-        <v>51</v>
+        <v>74</v>
       </c>
       <c r="E51" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F51" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.2">
@@ -1672,19 +1678,19 @@
         <v>45441</v>
       </c>
       <c r="B52" t="s">
+        <v>62</v>
+      </c>
+      <c r="C52" t="s">
+        <v>63</v>
+      </c>
+      <c r="D52" t="s">
+        <v>74</v>
+      </c>
+      <c r="E52" t="s">
+        <v>39</v>
+      </c>
+      <c r="F52" t="s">
         <v>64</v>
-      </c>
-      <c r="C52" t="s">
-        <v>65</v>
-      </c>
-      <c r="D52" t="s">
-        <v>51</v>
-      </c>
-      <c r="E52" t="s">
-        <v>40</v>
-      </c>
-      <c r="F52" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.2">
@@ -1692,19 +1698,19 @@
         <v>45441</v>
       </c>
       <c r="B53" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C53" t="s">
+        <v>41</v>
+      </c>
+      <c r="D53" t="s">
+        <v>74</v>
+      </c>
+      <c r="E53" t="s">
+        <v>39</v>
+      </c>
+      <c r="F53" t="s">
         <v>42</v>
-      </c>
-      <c r="D53" t="s">
-        <v>51</v>
-      </c>
-      <c r="E53" t="s">
-        <v>40</v>
-      </c>
-      <c r="F53" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.2">
@@ -1715,16 +1721,16 @@
         <v>34</v>
       </c>
       <c r="C54" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D54" t="s">
-        <v>51</v>
+        <v>74</v>
       </c>
       <c r="E54" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F54" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.2">
@@ -1732,19 +1738,19 @@
         <v>45442</v>
       </c>
       <c r="B55" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C55" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D55" t="s">
-        <v>51</v>
+        <v>74</v>
       </c>
       <c r="E55" t="s">
+        <v>44</v>
+      </c>
+      <c r="F55" t="s">
         <v>45</v>
-      </c>
-      <c r="F55" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.2">
@@ -1752,19 +1758,19 @@
         <v>45442</v>
       </c>
       <c r="B56" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C56" t="s">
         <v>17</v>
       </c>
       <c r="D56" t="s">
-        <v>51</v>
+        <v>74</v>
       </c>
       <c r="E56" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F56" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.2">
@@ -1775,16 +1781,16 @@
         <v>17</v>
       </c>
       <c r="C57" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D57" t="s">
-        <v>51</v>
+        <v>74</v>
       </c>
       <c r="E57" t="s">
+        <v>39</v>
+      </c>
+      <c r="F57" t="s">
         <v>40</v>
-      </c>
-      <c r="F57" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.2">
@@ -1792,16 +1798,16 @@
         <v>45442</v>
       </c>
       <c r="B58" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C58" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D58" t="s">
-        <v>51</v>
+        <v>74</v>
       </c>
       <c r="E58" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F58" t="s">
         <v>9</v>
@@ -1815,13 +1821,13 @@
         <v>34</v>
       </c>
       <c r="C59" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D59" t="s">
-        <v>51</v>
+        <v>74</v>
       </c>
       <c r="E59" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F59" t="s">
         <v>9</v>
@@ -1832,19 +1838,19 @@
         <v>45443</v>
       </c>
       <c r="B60" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C60" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D60" t="s">
-        <v>51</v>
+        <v>74</v>
       </c>
       <c r="E60" t="s">
+        <v>44</v>
+      </c>
+      <c r="F60" t="s">
         <v>45</v>
-      </c>
-      <c r="F60" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.2">
@@ -1852,16 +1858,16 @@
         <v>45443</v>
       </c>
       <c r="B61" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C61" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D61" t="s">
-        <v>51</v>
+        <v>74</v>
       </c>
       <c r="E61" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F61" t="s">
         <v>9</v>
@@ -1872,10 +1878,10 @@
         <v>45443</v>
       </c>
       <c r="B62" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C62" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D62" t="s">
         <v>32</v>
@@ -1892,16 +1898,16 @@
         <v>45443</v>
       </c>
       <c r="B63" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C63" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D63" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="E63" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F63" t="s">
         <v>9</v>
@@ -1912,19 +1918,19 @@
         <v>45443</v>
       </c>
       <c r="B64" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C64" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D64" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="E64" t="s">
+        <v>39</v>
+      </c>
+      <c r="F64" t="s">
         <v>40</v>
-      </c>
-      <c r="F64" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.2">
@@ -1935,16 +1941,16 @@
         <v>34</v>
       </c>
       <c r="C65" t="s">
+        <v>72</v>
+      </c>
+      <c r="D65" t="s">
         <v>75</v>
       </c>
-      <c r="D65" t="s">
-        <v>74</v>
-      </c>
       <c r="E65" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F65" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.2">
@@ -1952,22 +1958,23 @@
         <v>45444</v>
       </c>
       <c r="B66" t="s">
+        <v>72</v>
+      </c>
+      <c r="C66" t="s">
+        <v>41</v>
+      </c>
+      <c r="D66" t="s">
         <v>75</v>
       </c>
-      <c r="C66" t="s">
+      <c r="E66" t="s">
+        <v>39</v>
+      </c>
+      <c r="F66" t="s">
         <v>42</v>
       </c>
-      <c r="D66" t="s">
-        <v>74</v>
-      </c>
-      <c r="E66" t="s">
-        <v>40</v>
-      </c>
-      <c r="F66" t="s">
-        <v>43</v>
-      </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:F66" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/output_K.xlsx
+++ b/output_K.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\N9635226\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70250EB8-BC83-47AB-BB6D-48EF33C90AD6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{899E235B-B7B3-48B1-8595-E0FC205A2A02}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14016" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="323" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="648" uniqueCount="124">
   <si>
     <t>Date</t>
   </si>
@@ -254,6 +254,150 @@
   <si>
     <t>10_DAPLD_6km</t>
     <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>02:27:00</t>
+  </si>
+  <si>
+    <t>10_DAPLD_6km</t>
+  </si>
+  <si>
+    <t>10:21:00</t>
+  </si>
+  <si>
+    <t>20:05:00</t>
+  </si>
+  <si>
+    <t>07:22:00</t>
+  </si>
+  <si>
+    <t>10:50:00</t>
+  </si>
+  <si>
+    <t>17:53:00</t>
+  </si>
+  <si>
+    <t>AHT/Barge</t>
+  </si>
+  <si>
+    <t>01:35:00</t>
+  </si>
+  <si>
+    <t>04:30:00</t>
+  </si>
+  <si>
+    <t>04:31:00</t>
+  </si>
+  <si>
+    <t>05:35:00</t>
+  </si>
+  <si>
+    <t>07:35:00</t>
+  </si>
+  <si>
+    <t>09:10:00</t>
+  </si>
+  <si>
+    <t>18:40:00</t>
+  </si>
+  <si>
+    <t>10_GOPLE_7km</t>
+  </si>
+  <si>
+    <t>03:30:00</t>
+  </si>
+  <si>
+    <t>21:34:00</t>
+  </si>
+  <si>
+    <t>03:50:00</t>
+  </si>
+  <si>
+    <t>05:38:00</t>
+  </si>
+  <si>
+    <t>08:07:00</t>
+  </si>
+  <si>
+    <t>08:31:00</t>
+  </si>
+  <si>
+    <t>12:25:00</t>
+  </si>
+  <si>
+    <t>13:42:00</t>
+  </si>
+  <si>
+    <t>21:24:00</t>
+  </si>
+  <si>
+    <t>21:33:00</t>
+  </si>
+  <si>
+    <t>07:15:00</t>
+  </si>
+  <si>
+    <t>Hs &gt;2m</t>
+  </si>
+  <si>
+    <t>22:13:00</t>
+  </si>
+  <si>
+    <t>09:27:00</t>
+  </si>
+  <si>
+    <t>08:01:00</t>
+  </si>
+  <si>
+    <t>08:18:00</t>
+  </si>
+  <si>
+    <t>17:04:00</t>
+  </si>
+  <si>
+    <t>06:07:00</t>
+  </si>
+  <si>
+    <t>06:47:00</t>
+  </si>
+  <si>
+    <t>14:00:00</t>
+  </si>
+  <si>
+    <t>16:41:00</t>
+  </si>
+  <si>
+    <t>02:10:00</t>
+  </si>
+  <si>
+    <t>16_PLPLQ_3km</t>
+  </si>
+  <si>
+    <t>08:48:00</t>
+  </si>
+  <si>
+    <t>16:04:00</t>
+  </si>
+  <si>
+    <t>11:37:00</t>
+  </si>
+  <si>
+    <t>16:00:00</t>
+  </si>
+  <si>
+    <t>02:03:00</t>
+  </si>
+  <si>
+    <t>03:29:00</t>
+  </si>
+  <si>
+    <t>15:30:00</t>
+  </si>
+  <si>
+    <t>19:50:00</t>
+  </si>
+  <si>
+    <t>05:00:00</t>
   </si>
 </sst>
 </file>
@@ -639,10 +783,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F66"/>
+  <dimension ref="A1:F131"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+    <sheetView tabSelected="1" topLeftCell="A106" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="E110" sqref="E110"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
@@ -1973,6 +2117,1306 @@
         <v>42</v>
       </c>
     </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A67" s="3">
+        <v>45445</v>
+      </c>
+      <c r="B67" t="s">
+        <v>34</v>
+      </c>
+      <c r="C67" t="s">
+        <v>76</v>
+      </c>
+      <c r="D67" t="s">
+        <v>77</v>
+      </c>
+      <c r="E67" t="s">
+        <v>39</v>
+      </c>
+      <c r="F67" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A68" s="3">
+        <v>45445</v>
+      </c>
+      <c r="B68" t="s">
+        <v>76</v>
+      </c>
+      <c r="C68" t="s">
+        <v>78</v>
+      </c>
+      <c r="D68" t="s">
+        <v>77</v>
+      </c>
+      <c r="E68" t="s">
+        <v>39</v>
+      </c>
+      <c r="F68" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A69" s="3">
+        <v>45445</v>
+      </c>
+      <c r="B69" t="s">
+        <v>78</v>
+      </c>
+      <c r="C69" t="s">
+        <v>41</v>
+      </c>
+      <c r="D69" t="s">
+        <v>77</v>
+      </c>
+      <c r="E69" t="s">
+        <v>39</v>
+      </c>
+      <c r="F69" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A70" s="3">
+        <v>45446</v>
+      </c>
+      <c r="B70" t="s">
+        <v>34</v>
+      </c>
+      <c r="C70" t="s">
+        <v>41</v>
+      </c>
+      <c r="D70" t="s">
+        <v>77</v>
+      </c>
+      <c r="E70" t="s">
+        <v>39</v>
+      </c>
+      <c r="F70" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A71" s="3">
+        <v>45447</v>
+      </c>
+      <c r="B71" t="s">
+        <v>34</v>
+      </c>
+      <c r="C71" t="s">
+        <v>79</v>
+      </c>
+      <c r="D71" t="s">
+        <v>77</v>
+      </c>
+      <c r="E71" t="s">
+        <v>39</v>
+      </c>
+      <c r="F71" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A72" s="3">
+        <v>45447</v>
+      </c>
+      <c r="B72" t="s">
+        <v>79</v>
+      </c>
+      <c r="C72" t="s">
+        <v>41</v>
+      </c>
+      <c r="D72" t="s">
+        <v>77</v>
+      </c>
+      <c r="E72" t="s">
+        <v>39</v>
+      </c>
+      <c r="F72" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A73" s="3">
+        <v>45448</v>
+      </c>
+      <c r="B73" t="s">
+        <v>34</v>
+      </c>
+      <c r="C73" t="s">
+        <v>80</v>
+      </c>
+      <c r="D73" t="s">
+        <v>77</v>
+      </c>
+      <c r="E73" t="s">
+        <v>39</v>
+      </c>
+      <c r="F73" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A74" s="3">
+        <v>45448</v>
+      </c>
+      <c r="B74" t="s">
+        <v>80</v>
+      </c>
+      <c r="C74" t="s">
+        <v>81</v>
+      </c>
+      <c r="D74" t="s">
+        <v>77</v>
+      </c>
+      <c r="E74" t="s">
+        <v>40</v>
+      </c>
+      <c r="F74" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A75" s="3">
+        <v>45448</v>
+      </c>
+      <c r="B75" t="s">
+        <v>81</v>
+      </c>
+      <c r="C75" t="s">
+        <v>82</v>
+      </c>
+      <c r="D75" t="s">
+        <v>77</v>
+      </c>
+      <c r="E75" t="s">
+        <v>37</v>
+      </c>
+      <c r="F75" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A76" s="3">
+        <v>45448</v>
+      </c>
+      <c r="B76" t="s">
+        <v>82</v>
+      </c>
+      <c r="C76" t="s">
+        <v>41</v>
+      </c>
+      <c r="D76" t="s">
+        <v>77</v>
+      </c>
+      <c r="E76" t="s">
+        <v>53</v>
+      </c>
+      <c r="F76" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A77" s="3">
+        <v>45449</v>
+      </c>
+      <c r="B77" t="s">
+        <v>34</v>
+      </c>
+      <c r="C77" t="s">
+        <v>84</v>
+      </c>
+      <c r="D77" t="s">
+        <v>77</v>
+      </c>
+      <c r="E77" t="s">
+        <v>53</v>
+      </c>
+      <c r="F77" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A78" s="3">
+        <v>45449</v>
+      </c>
+      <c r="B78" t="s">
+        <v>84</v>
+      </c>
+      <c r="C78" t="s">
+        <v>85</v>
+      </c>
+      <c r="D78" t="s">
+        <v>77</v>
+      </c>
+      <c r="E78" t="s">
+        <v>37</v>
+      </c>
+      <c r="F78" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A79" s="3">
+        <v>45449</v>
+      </c>
+      <c r="B79" t="s">
+        <v>86</v>
+      </c>
+      <c r="C79" t="s">
+        <v>65</v>
+      </c>
+      <c r="D79" t="s">
+        <v>77</v>
+      </c>
+      <c r="E79" t="s">
+        <v>37</v>
+      </c>
+      <c r="F79" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A80" s="3">
+        <v>45449</v>
+      </c>
+      <c r="B80" t="s">
+        <v>65</v>
+      </c>
+      <c r="C80" t="s">
+        <v>87</v>
+      </c>
+      <c r="D80" t="s">
+        <v>77</v>
+      </c>
+      <c r="E80" t="s">
+        <v>37</v>
+      </c>
+      <c r="F80" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A81" s="3">
+        <v>45449</v>
+      </c>
+      <c r="B81" t="s">
+        <v>87</v>
+      </c>
+      <c r="C81" t="s">
+        <v>88</v>
+      </c>
+      <c r="D81" t="s">
+        <v>77</v>
+      </c>
+      <c r="E81" t="s">
+        <v>53</v>
+      </c>
+      <c r="F81" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A82" s="3">
+        <v>45449</v>
+      </c>
+      <c r="B82" t="s">
+        <v>88</v>
+      </c>
+      <c r="C82" t="s">
+        <v>89</v>
+      </c>
+      <c r="D82" t="s">
+        <v>77</v>
+      </c>
+      <c r="E82" t="s">
+        <v>37</v>
+      </c>
+      <c r="F82" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A83" s="3">
+        <v>45449</v>
+      </c>
+      <c r="B83" t="s">
+        <v>89</v>
+      </c>
+      <c r="C83" t="s">
+        <v>90</v>
+      </c>
+      <c r="D83" t="s">
+        <v>32</v>
+      </c>
+      <c r="E83" t="s">
+        <v>33</v>
+      </c>
+      <c r="F83" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A84" s="3">
+        <v>45449</v>
+      </c>
+      <c r="B84" t="s">
+        <v>90</v>
+      </c>
+      <c r="C84" t="s">
+        <v>41</v>
+      </c>
+      <c r="D84" t="s">
+        <v>91</v>
+      </c>
+      <c r="E84" t="s">
+        <v>37</v>
+      </c>
+      <c r="F84" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A85" s="3">
+        <v>45450</v>
+      </c>
+      <c r="B85" t="s">
+        <v>34</v>
+      </c>
+      <c r="C85" t="s">
+        <v>92</v>
+      </c>
+      <c r="D85" t="s">
+        <v>91</v>
+      </c>
+      <c r="E85" t="s">
+        <v>37</v>
+      </c>
+      <c r="F85" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A86" s="3">
+        <v>45450</v>
+      </c>
+      <c r="B86" t="s">
+        <v>92</v>
+      </c>
+      <c r="C86" t="s">
+        <v>93</v>
+      </c>
+      <c r="D86" t="s">
+        <v>91</v>
+      </c>
+      <c r="E86" t="s">
+        <v>39</v>
+      </c>
+      <c r="F86" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A87" s="3">
+        <v>45450</v>
+      </c>
+      <c r="B87" t="s">
+        <v>93</v>
+      </c>
+      <c r="C87" t="s">
+        <v>41</v>
+      </c>
+      <c r="D87" t="s">
+        <v>91</v>
+      </c>
+      <c r="E87" t="s">
+        <v>39</v>
+      </c>
+      <c r="F87" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A88" s="3">
+        <v>45451</v>
+      </c>
+      <c r="B88" t="s">
+        <v>34</v>
+      </c>
+      <c r="C88" t="s">
+        <v>94</v>
+      </c>
+      <c r="D88" t="s">
+        <v>91</v>
+      </c>
+      <c r="E88" t="s">
+        <v>39</v>
+      </c>
+      <c r="F88" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A89" s="3">
+        <v>45451</v>
+      </c>
+      <c r="B89" t="s">
+        <v>94</v>
+      </c>
+      <c r="C89" t="s">
+        <v>95</v>
+      </c>
+      <c r="D89" t="s">
+        <v>91</v>
+      </c>
+      <c r="E89" t="s">
+        <v>39</v>
+      </c>
+      <c r="F89" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A90" s="3">
+        <v>45451</v>
+      </c>
+      <c r="B90" t="s">
+        <v>95</v>
+      </c>
+      <c r="C90" t="s">
+        <v>41</v>
+      </c>
+      <c r="D90" t="s">
+        <v>91</v>
+      </c>
+      <c r="E90" t="s">
+        <v>39</v>
+      </c>
+      <c r="F90" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A91" s="3">
+        <v>45452</v>
+      </c>
+      <c r="B91" t="s">
+        <v>34</v>
+      </c>
+      <c r="C91" t="s">
+        <v>96</v>
+      </c>
+      <c r="D91" t="s">
+        <v>91</v>
+      </c>
+      <c r="E91" t="s">
+        <v>39</v>
+      </c>
+      <c r="F91" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A92" s="3">
+        <v>45452</v>
+      </c>
+      <c r="B92" t="s">
+        <v>96</v>
+      </c>
+      <c r="C92" t="s">
+        <v>97</v>
+      </c>
+      <c r="D92" t="s">
+        <v>91</v>
+      </c>
+      <c r="E92" t="s">
+        <v>37</v>
+      </c>
+      <c r="F92" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A93" s="3">
+        <v>45452</v>
+      </c>
+      <c r="B93" t="s">
+        <v>97</v>
+      </c>
+      <c r="C93" t="s">
+        <v>98</v>
+      </c>
+      <c r="D93" t="s">
+        <v>91</v>
+      </c>
+      <c r="E93" t="s">
+        <v>39</v>
+      </c>
+      <c r="F93" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A94" s="3">
+        <v>45452</v>
+      </c>
+      <c r="B94" t="s">
+        <v>98</v>
+      </c>
+      <c r="C94" t="s">
+        <v>99</v>
+      </c>
+      <c r="D94" t="s">
+        <v>91</v>
+      </c>
+      <c r="E94" t="s">
+        <v>37</v>
+      </c>
+      <c r="F94" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A95" s="3">
+        <v>45452</v>
+      </c>
+      <c r="B95" t="s">
+        <v>99</v>
+      </c>
+      <c r="C95" t="s">
+        <v>100</v>
+      </c>
+      <c r="D95" t="s">
+        <v>91</v>
+      </c>
+      <c r="E95" t="s">
+        <v>39</v>
+      </c>
+      <c r="F95" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A96" s="3">
+        <v>45452</v>
+      </c>
+      <c r="B96" t="s">
+        <v>100</v>
+      </c>
+      <c r="C96" t="s">
+        <v>101</v>
+      </c>
+      <c r="D96" t="s">
+        <v>91</v>
+      </c>
+      <c r="E96" t="s">
+        <v>37</v>
+      </c>
+      <c r="F96" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A97" s="3">
+        <v>45452</v>
+      </c>
+      <c r="B97" t="s">
+        <v>101</v>
+      </c>
+      <c r="C97" t="s">
+        <v>41</v>
+      </c>
+      <c r="D97" t="s">
+        <v>91</v>
+      </c>
+      <c r="E97" t="s">
+        <v>39</v>
+      </c>
+      <c r="F97" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A98" s="3">
+        <v>45453</v>
+      </c>
+      <c r="B98" t="s">
+        <v>34</v>
+      </c>
+      <c r="C98" t="s">
+        <v>43</v>
+      </c>
+      <c r="D98" t="s">
+        <v>91</v>
+      </c>
+      <c r="E98" t="s">
+        <v>39</v>
+      </c>
+      <c r="F98" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A99" s="3">
+        <v>45453</v>
+      </c>
+      <c r="B99" t="s">
+        <v>43</v>
+      </c>
+      <c r="C99" t="s">
+        <v>102</v>
+      </c>
+      <c r="D99" t="s">
+        <v>91</v>
+      </c>
+      <c r="E99" t="s">
+        <v>44</v>
+      </c>
+      <c r="F99" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A100" s="3">
+        <v>45453</v>
+      </c>
+      <c r="B100" t="s">
+        <v>102</v>
+      </c>
+      <c r="C100" t="s">
+        <v>41</v>
+      </c>
+      <c r="D100" t="s">
+        <v>91</v>
+      </c>
+      <c r="E100" t="s">
+        <v>39</v>
+      </c>
+      <c r="F100" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A101" s="3">
+        <v>45454</v>
+      </c>
+      <c r="B101" t="s">
+        <v>34</v>
+      </c>
+      <c r="C101" t="s">
+        <v>104</v>
+      </c>
+      <c r="D101" t="s">
+        <v>91</v>
+      </c>
+      <c r="E101" t="s">
+        <v>39</v>
+      </c>
+      <c r="F101" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A102" s="3">
+        <v>45454</v>
+      </c>
+      <c r="B102" t="s">
+        <v>104</v>
+      </c>
+      <c r="C102" t="s">
+        <v>41</v>
+      </c>
+      <c r="D102" t="s">
+        <v>91</v>
+      </c>
+      <c r="E102" t="s">
+        <v>53</v>
+      </c>
+      <c r="F102" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A103" s="3">
+        <v>45455</v>
+      </c>
+      <c r="B103" t="s">
+        <v>34</v>
+      </c>
+      <c r="C103" t="s">
+        <v>105</v>
+      </c>
+      <c r="D103" t="s">
+        <v>91</v>
+      </c>
+      <c r="E103" t="s">
+        <v>53</v>
+      </c>
+      <c r="F103" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A104" s="3">
+        <v>45455</v>
+      </c>
+      <c r="B104" t="s">
+        <v>105</v>
+      </c>
+      <c r="C104" t="s">
+        <v>36</v>
+      </c>
+      <c r="D104" t="s">
+        <v>91</v>
+      </c>
+      <c r="E104" t="s">
+        <v>39</v>
+      </c>
+      <c r="F104" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A105" s="3">
+        <v>45455</v>
+      </c>
+      <c r="B105" t="s">
+        <v>36</v>
+      </c>
+      <c r="C105" t="s">
+        <v>41</v>
+      </c>
+      <c r="D105" t="s">
+        <v>91</v>
+      </c>
+      <c r="E105" t="s">
+        <v>53</v>
+      </c>
+      <c r="F105" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="106" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A106" s="3">
+        <v>45456</v>
+      </c>
+      <c r="B106" t="s">
+        <v>34</v>
+      </c>
+      <c r="C106" t="s">
+        <v>106</v>
+      </c>
+      <c r="D106" t="s">
+        <v>91</v>
+      </c>
+      <c r="E106" t="s">
+        <v>53</v>
+      </c>
+      <c r="F106" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="107" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A107" s="3">
+        <v>45456</v>
+      </c>
+      <c r="B107" t="s">
+        <v>106</v>
+      </c>
+      <c r="C107" t="s">
+        <v>107</v>
+      </c>
+      <c r="D107" t="s">
+        <v>91</v>
+      </c>
+      <c r="E107" t="s">
+        <v>39</v>
+      </c>
+      <c r="F107" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A108" s="3">
+        <v>45456</v>
+      </c>
+      <c r="B108" t="s">
+        <v>107</v>
+      </c>
+      <c r="C108" t="s">
+        <v>108</v>
+      </c>
+      <c r="D108" t="s">
+        <v>91</v>
+      </c>
+      <c r="E108" t="s">
+        <v>53</v>
+      </c>
+      <c r="F108" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="109" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A109" s="3">
+        <v>45456</v>
+      </c>
+      <c r="B109" t="s">
+        <v>108</v>
+      </c>
+      <c r="C109" t="s">
+        <v>41</v>
+      </c>
+      <c r="D109" t="s">
+        <v>91</v>
+      </c>
+      <c r="E109" t="s">
+        <v>39</v>
+      </c>
+      <c r="F109" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="110" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A110" s="3">
+        <v>45457</v>
+      </c>
+      <c r="B110" t="s">
+        <v>34</v>
+      </c>
+      <c r="C110" t="s">
+        <v>109</v>
+      </c>
+      <c r="D110" t="s">
+        <v>91</v>
+      </c>
+      <c r="E110" t="s">
+        <v>39</v>
+      </c>
+      <c r="F110" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="111" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A111" s="3">
+        <v>45457</v>
+      </c>
+      <c r="B111" t="s">
+        <v>109</v>
+      </c>
+      <c r="C111" t="s">
+        <v>110</v>
+      </c>
+      <c r="D111" t="s">
+        <v>91</v>
+      </c>
+      <c r="E111" t="s">
+        <v>37</v>
+      </c>
+      <c r="F111" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="112" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A112" s="3">
+        <v>45457</v>
+      </c>
+      <c r="B112" t="s">
+        <v>110</v>
+      </c>
+      <c r="C112" t="s">
+        <v>111</v>
+      </c>
+      <c r="D112" t="s">
+        <v>91</v>
+      </c>
+      <c r="E112" t="s">
+        <v>39</v>
+      </c>
+      <c r="F112" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="113" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A113" s="3">
+        <v>45457</v>
+      </c>
+      <c r="B113" t="s">
+        <v>111</v>
+      </c>
+      <c r="C113" t="s">
+        <v>112</v>
+      </c>
+      <c r="D113" t="s">
+        <v>91</v>
+      </c>
+      <c r="E113" t="s">
+        <v>39</v>
+      </c>
+      <c r="F113" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="114" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A114" s="3">
+        <v>45457</v>
+      </c>
+      <c r="B114" t="s">
+        <v>112</v>
+      </c>
+      <c r="C114" t="s">
+        <v>41</v>
+      </c>
+      <c r="D114" t="s">
+        <v>91</v>
+      </c>
+      <c r="E114" t="s">
+        <v>37</v>
+      </c>
+      <c r="F114" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="115" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A115" s="3">
+        <v>45458</v>
+      </c>
+      <c r="B115" t="s">
+        <v>34</v>
+      </c>
+      <c r="C115" t="s">
+        <v>113</v>
+      </c>
+      <c r="D115" t="s">
+        <v>91</v>
+      </c>
+      <c r="E115" t="s">
+        <v>37</v>
+      </c>
+      <c r="F115" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="116" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A116" s="3">
+        <v>45458</v>
+      </c>
+      <c r="B116" t="s">
+        <v>113</v>
+      </c>
+      <c r="C116" t="s">
+        <v>26</v>
+      </c>
+      <c r="D116" t="s">
+        <v>32</v>
+      </c>
+      <c r="E116" t="s">
+        <v>33</v>
+      </c>
+      <c r="F116" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="117" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A117" s="3">
+        <v>45458</v>
+      </c>
+      <c r="B117" t="s">
+        <v>26</v>
+      </c>
+      <c r="C117" t="s">
+        <v>41</v>
+      </c>
+      <c r="D117" t="s">
+        <v>114</v>
+      </c>
+      <c r="E117" t="s">
+        <v>37</v>
+      </c>
+      <c r="F117" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="118" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A118" s="3">
+        <v>45459</v>
+      </c>
+      <c r="B118" t="s">
+        <v>34</v>
+      </c>
+      <c r="C118" t="s">
+        <v>115</v>
+      </c>
+      <c r="D118" t="s">
+        <v>114</v>
+      </c>
+      <c r="E118" t="s">
+        <v>37</v>
+      </c>
+      <c r="F118" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="119" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A119" s="3">
+        <v>45459</v>
+      </c>
+      <c r="B119" t="s">
+        <v>115</v>
+      </c>
+      <c r="C119" t="s">
+        <v>116</v>
+      </c>
+      <c r="D119" t="s">
+        <v>114</v>
+      </c>
+      <c r="E119" t="s">
+        <v>39</v>
+      </c>
+      <c r="F119" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="120" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A120" s="3">
+        <v>45459</v>
+      </c>
+      <c r="B120" t="s">
+        <v>116</v>
+      </c>
+      <c r="C120" t="s">
+        <v>41</v>
+      </c>
+      <c r="D120" t="s">
+        <v>114</v>
+      </c>
+      <c r="E120" t="s">
+        <v>39</v>
+      </c>
+      <c r="F120" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="121" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A121" s="3">
+        <v>45460</v>
+      </c>
+      <c r="B121" t="s">
+        <v>34</v>
+      </c>
+      <c r="C121" t="s">
+        <v>117</v>
+      </c>
+      <c r="D121" t="s">
+        <v>114</v>
+      </c>
+      <c r="E121" t="s">
+        <v>39</v>
+      </c>
+      <c r="F121" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="122" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A122" s="3">
+        <v>45460</v>
+      </c>
+      <c r="B122" t="s">
+        <v>117</v>
+      </c>
+      <c r="C122" t="s">
+        <v>118</v>
+      </c>
+      <c r="D122" t="s">
+        <v>114</v>
+      </c>
+      <c r="E122" t="s">
+        <v>39</v>
+      </c>
+      <c r="F122" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="123" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A123" s="3">
+        <v>45460</v>
+      </c>
+      <c r="B123" t="s">
+        <v>118</v>
+      </c>
+      <c r="C123" t="s">
+        <v>41</v>
+      </c>
+      <c r="D123" t="s">
+        <v>114</v>
+      </c>
+      <c r="E123" t="s">
+        <v>39</v>
+      </c>
+      <c r="F123" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="124" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A124" s="3">
+        <v>45461</v>
+      </c>
+      <c r="B124" t="s">
+        <v>34</v>
+      </c>
+      <c r="C124" t="s">
+        <v>26</v>
+      </c>
+      <c r="D124" t="s">
+        <v>114</v>
+      </c>
+      <c r="E124" t="s">
+        <v>39</v>
+      </c>
+      <c r="F124" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="125" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A125" s="3">
+        <v>45461</v>
+      </c>
+      <c r="B125" t="s">
+        <v>26</v>
+      </c>
+      <c r="C125" t="s">
+        <v>41</v>
+      </c>
+      <c r="D125" t="s">
+        <v>114</v>
+      </c>
+      <c r="E125" t="s">
+        <v>37</v>
+      </c>
+      <c r="F125" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="126" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A126" s="3">
+        <v>45462</v>
+      </c>
+      <c r="B126" t="s">
+        <v>34</v>
+      </c>
+      <c r="C126" t="s">
+        <v>119</v>
+      </c>
+      <c r="D126" t="s">
+        <v>114</v>
+      </c>
+      <c r="E126" t="s">
+        <v>37</v>
+      </c>
+      <c r="F126" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="127" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A127" s="3">
+        <v>45462</v>
+      </c>
+      <c r="B127" t="s">
+        <v>119</v>
+      </c>
+      <c r="C127" t="s">
+        <v>120</v>
+      </c>
+      <c r="D127" t="s">
+        <v>114</v>
+      </c>
+      <c r="E127" t="s">
+        <v>39</v>
+      </c>
+      <c r="F127" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="128" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A128" s="3">
+        <v>45462</v>
+      </c>
+      <c r="B128" t="s">
+        <v>120</v>
+      </c>
+      <c r="C128" t="s">
+        <v>121</v>
+      </c>
+      <c r="D128" t="s">
+        <v>114</v>
+      </c>
+      <c r="E128" t="s">
+        <v>39</v>
+      </c>
+      <c r="F128" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="129" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A129" s="3">
+        <v>45462</v>
+      </c>
+      <c r="B129" t="s">
+        <v>121</v>
+      </c>
+      <c r="C129" t="s">
+        <v>122</v>
+      </c>
+      <c r="D129" t="s">
+        <v>114</v>
+      </c>
+      <c r="E129" t="s">
+        <v>39</v>
+      </c>
+      <c r="F129" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="130" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A130" s="3">
+        <v>45462</v>
+      </c>
+      <c r="B130" t="s">
+        <v>122</v>
+      </c>
+      <c r="C130" t="s">
+        <v>41</v>
+      </c>
+      <c r="D130" t="s">
+        <v>114</v>
+      </c>
+      <c r="E130" t="s">
+        <v>37</v>
+      </c>
+      <c r="F130" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="131" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A131" s="3">
+        <v>45463</v>
+      </c>
+      <c r="B131" t="s">
+        <v>34</v>
+      </c>
+      <c r="C131" t="s">
+        <v>123</v>
+      </c>
+      <c r="D131" t="s">
+        <v>114</v>
+      </c>
+      <c r="E131" t="s">
+        <v>37</v>
+      </c>
+      <c r="F131" t="s">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:F66" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <phoneticPr fontId="2"/>

--- a/output_K.xlsx
+++ b/output_K.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\N9635226\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{899E235B-B7B3-48B1-8595-E0FC205A2A02}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45C2B888-2670-49D8-B58E-AF424544C13B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14016" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15390" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="648" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1068" uniqueCount="202">
   <si>
     <t>Date</t>
   </si>
@@ -398,6 +398,240 @@
   </si>
   <si>
     <t>05:00:00</t>
+  </si>
+  <si>
+    <t>01:30:00</t>
+  </si>
+  <si>
+    <t>22:50:00</t>
+  </si>
+  <si>
+    <t>USBL(DP)</t>
+  </si>
+  <si>
+    <t>02:00:00</t>
+  </si>
+  <si>
+    <t>04:00:00</t>
+  </si>
+  <si>
+    <t>06:24:00</t>
+  </si>
+  <si>
+    <t>16_JKPLP_4km</t>
+  </si>
+  <si>
+    <t>08:57:00</t>
+  </si>
+  <si>
+    <t>Sub(Survey)</t>
+  </si>
+  <si>
+    <t>04:10:00</t>
+  </si>
+  <si>
+    <t>15:56:00</t>
+  </si>
+  <si>
+    <t>00:50:00</t>
+  </si>
+  <si>
+    <t>03:10:00</t>
+  </si>
+  <si>
+    <t>08:38:00</t>
+  </si>
+  <si>
+    <t>17:20:00</t>
+  </si>
+  <si>
+    <t>17:34:00</t>
+  </si>
+  <si>
+    <t>22:30:00</t>
+  </si>
+  <si>
+    <t>08:02:00</t>
+  </si>
+  <si>
+    <t>12:58:00</t>
+  </si>
+  <si>
+    <t>16_SGPLI_3km</t>
+  </si>
+  <si>
+    <t>22:12:00</t>
+  </si>
+  <si>
+    <t>07:48:00</t>
+  </si>
+  <si>
+    <t>12:45:00</t>
+  </si>
+  <si>
+    <t>12:05:00</t>
+  </si>
+  <si>
+    <t>17:40:00</t>
+  </si>
+  <si>
+    <t>19:37:00</t>
+  </si>
+  <si>
+    <t>16_PKPLH_7km</t>
+  </si>
+  <si>
+    <t>19:23:00</t>
+  </si>
+  <si>
+    <t>20:49:00</t>
+  </si>
+  <si>
+    <t>20:57:00</t>
+  </si>
+  <si>
+    <t>21:29:00</t>
+  </si>
+  <si>
+    <t>22:52:00</t>
+  </si>
+  <si>
+    <t>09:16:00</t>
+  </si>
+  <si>
+    <t>16:23:00</t>
+  </si>
+  <si>
+    <t>14:19:00</t>
+  </si>
+  <si>
+    <t>06:36:00</t>
+  </si>
+  <si>
+    <t>20:35:00</t>
+  </si>
+  <si>
+    <t>20:24:00</t>
+  </si>
+  <si>
+    <t>21:50:00</t>
+  </si>
+  <si>
+    <t>10:20:00</t>
+  </si>
+  <si>
+    <t>02:08:00</t>
+  </si>
+  <si>
+    <t>07:39:00</t>
+  </si>
+  <si>
+    <t>ERPLR2-Y1_DL</t>
+  </si>
+  <si>
+    <t>09:00:00</t>
+  </si>
+  <si>
+    <t>ROV survey</t>
+  </si>
+  <si>
+    <t>08:00:00</t>
+  </si>
+  <si>
+    <t>Spool fab</t>
+  </si>
+  <si>
+    <t>10:12:00</t>
+  </si>
+  <si>
+    <t>10:10:00</t>
+  </si>
+  <si>
+    <t>Spool Inst.</t>
+  </si>
+  <si>
+    <t>00:18:00</t>
+  </si>
+  <si>
+    <t>10:25:00</t>
+  </si>
+  <si>
+    <t>04:41:00</t>
+  </si>
+  <si>
+    <t>05:37:00</t>
+  </si>
+  <si>
+    <t>03:16:00</t>
+  </si>
+  <si>
+    <t>07:55:00</t>
+  </si>
+  <si>
+    <t>12:15:00</t>
+  </si>
+  <si>
+    <t>Field_move</t>
+  </si>
+  <si>
+    <t>Bunkering</t>
+  </si>
+  <si>
+    <t>13:20:00</t>
+  </si>
+  <si>
+    <t>09:30:00</t>
+  </si>
+  <si>
+    <t>17:45:00</t>
+  </si>
+  <si>
+    <t>GOWA_Riser</t>
+  </si>
+  <si>
+    <t>18:35:00</t>
+  </si>
+  <si>
+    <t>18:25:00</t>
+  </si>
+  <si>
+    <t>19:45:00</t>
+  </si>
+  <si>
+    <t>Scaffoldings</t>
+  </si>
+  <si>
+    <t>00:30:00</t>
+  </si>
+  <si>
+    <t>00:25:00</t>
+  </si>
+  <si>
+    <t>01:40:00</t>
+  </si>
+  <si>
+    <t>01:45:00</t>
+  </si>
+  <si>
+    <t>Riser</t>
+  </si>
+  <si>
+    <t>18:15:00</t>
+  </si>
+  <si>
+    <t>18:13:00</t>
+  </si>
+  <si>
+    <t>18:18:00</t>
+  </si>
+  <si>
+    <t>19:00:00</t>
+  </si>
+  <si>
+    <t>09:25:00</t>
+  </si>
+  <si>
+    <t>Riser protector</t>
   </si>
 </sst>
 </file>
@@ -783,21 +1017,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F131"/>
+  <dimension ref="A1:F215"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A106" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="E110" sqref="E110"/>
+    <sheetView tabSelected="1" topLeftCell="A193" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="C129" sqref="C129"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="17" style="3" customWidth="1"/>
-    <col min="4" max="4" width="25.5546875" customWidth="1"/>
-    <col min="5" max="5" width="11.21875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="25.5" customWidth="1"/>
+    <col min="5" max="5" width="11.25" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -817,7 +1051,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A2" s="3">
         <v>45433</v>
       </c>
@@ -837,7 +1071,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A3" s="3">
         <v>45433</v>
       </c>
@@ -857,7 +1091,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A4" s="3">
         <v>45433</v>
       </c>
@@ -877,7 +1111,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A5" s="3">
         <v>45433</v>
       </c>
@@ -897,7 +1131,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A6" s="3">
         <v>45433</v>
       </c>
@@ -917,7 +1151,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A7" s="3">
         <v>45433</v>
       </c>
@@ -937,7 +1171,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A8" s="3">
         <v>45433</v>
       </c>
@@ -957,7 +1191,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A9" s="3">
         <v>45433</v>
       </c>
@@ -977,7 +1211,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A10" s="3">
         <v>45433</v>
       </c>
@@ -997,7 +1231,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A11" s="3">
         <v>45433</v>
       </c>
@@ -1017,7 +1251,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A12" s="3">
         <v>45433</v>
       </c>
@@ -1037,7 +1271,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A13" s="3">
         <v>45433</v>
       </c>
@@ -1057,7 +1291,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A14" s="3">
         <v>45433</v>
       </c>
@@ -1077,7 +1311,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A15" s="3">
         <v>45433</v>
       </c>
@@ -1097,7 +1331,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A16" s="3">
         <v>45433</v>
       </c>
@@ -1117,7 +1351,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A17" s="3">
         <v>45433</v>
       </c>
@@ -1137,7 +1371,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A18" s="3">
         <v>45433</v>
       </c>
@@ -1157,7 +1391,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A19" s="3">
         <v>45433</v>
       </c>
@@ -1177,7 +1411,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A20" s="3">
         <v>45433</v>
       </c>
@@ -1197,7 +1431,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A21" s="3">
         <v>45433</v>
       </c>
@@ -1217,7 +1451,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A22" s="3">
         <v>45433</v>
       </c>
@@ -1237,7 +1471,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A23" s="3">
         <v>45433</v>
       </c>
@@ -1257,7 +1491,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A24" s="3">
         <v>45433</v>
       </c>
@@ -1277,7 +1511,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A25" s="3">
         <v>45434</v>
       </c>
@@ -1297,7 +1531,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A26" s="3">
         <v>45434</v>
       </c>
@@ -1317,7 +1551,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A27" s="3">
         <v>45434</v>
       </c>
@@ -1337,7 +1571,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A28" s="3">
         <v>45434</v>
       </c>
@@ -1357,7 +1591,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A29" s="3">
         <v>45435</v>
       </c>
@@ -1377,7 +1611,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A30" s="3">
         <v>45435</v>
       </c>
@@ -1397,7 +1631,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A31" s="3">
         <v>45436</v>
       </c>
@@ -1417,7 +1651,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A32" s="3">
         <v>45436</v>
       </c>
@@ -1437,7 +1671,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A33" s="3">
         <v>45436</v>
       </c>
@@ -1457,7 +1691,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A34" s="3">
         <v>45437</v>
       </c>
@@ -1477,7 +1711,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A35" s="3">
         <v>45437</v>
       </c>
@@ -1497,7 +1731,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A36" s="3">
         <v>45437</v>
       </c>
@@ -1517,7 +1751,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A37" s="3">
         <v>45437</v>
       </c>
@@ -1537,7 +1771,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A38" s="3">
         <v>45438</v>
       </c>
@@ -1557,7 +1791,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A39" s="3">
         <v>45438</v>
       </c>
@@ -1577,7 +1811,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A40" s="3">
         <v>45438</v>
       </c>
@@ -1597,7 +1831,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A41" s="3">
         <v>45439</v>
       </c>
@@ -1617,7 +1851,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A42" s="3">
         <v>45439</v>
       </c>
@@ -1637,7 +1871,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A43" s="3">
         <v>45439</v>
       </c>
@@ -1657,7 +1891,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A44" s="3">
         <v>45439</v>
       </c>
@@ -1677,7 +1911,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A45" s="3">
         <v>45439</v>
       </c>
@@ -1697,7 +1931,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A46" s="3">
         <v>45439</v>
       </c>
@@ -1717,7 +1951,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A47" s="3">
         <v>45439</v>
       </c>
@@ -1737,7 +1971,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A48" s="3">
         <v>45439</v>
       </c>
@@ -1757,7 +1991,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A49" s="3">
         <v>45440</v>
       </c>
@@ -1777,7 +2011,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A50" s="3">
         <v>45440</v>
       </c>
@@ -1797,7 +2031,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A51" s="3">
         <v>45441</v>
       </c>
@@ -1817,7 +2051,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A52" s="3">
         <v>45441</v>
       </c>
@@ -1837,7 +2071,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A53" s="3">
         <v>45441</v>
       </c>
@@ -1857,7 +2091,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A54" s="3">
         <v>45442</v>
       </c>
@@ -1877,7 +2111,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A55" s="3">
         <v>45442</v>
       </c>
@@ -1897,7 +2131,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A56" s="3">
         <v>45442</v>
       </c>
@@ -1917,7 +2151,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A57" s="3">
         <v>45442</v>
       </c>
@@ -1937,7 +2171,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A58" s="3">
         <v>45442</v>
       </c>
@@ -1957,7 +2191,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A59" s="3">
         <v>45443</v>
       </c>
@@ -1977,7 +2211,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A60" s="3">
         <v>45443</v>
       </c>
@@ -1997,7 +2231,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A61" s="3">
         <v>45443</v>
       </c>
@@ -2017,7 +2251,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A62" s="3">
         <v>45443</v>
       </c>
@@ -2037,7 +2271,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A63" s="3">
         <v>45443</v>
       </c>
@@ -2057,7 +2291,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A64" s="3">
         <v>45443</v>
       </c>
@@ -2077,7 +2311,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A65" s="3">
         <v>45444</v>
       </c>
@@ -2097,7 +2331,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A66" s="3">
         <v>45444</v>
       </c>
@@ -2117,7 +2351,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A67" s="3">
         <v>45445</v>
       </c>
@@ -2137,7 +2371,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A68" s="3">
         <v>45445</v>
       </c>
@@ -2157,7 +2391,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A69" s="3">
         <v>45445</v>
       </c>
@@ -2177,7 +2411,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A70" s="3">
         <v>45446</v>
       </c>
@@ -2197,7 +2431,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A71" s="3">
         <v>45447</v>
       </c>
@@ -2217,7 +2451,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A72" s="3">
         <v>45447</v>
       </c>
@@ -2237,7 +2471,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A73" s="3">
         <v>45448</v>
       </c>
@@ -2257,7 +2491,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A74" s="3">
         <v>45448</v>
       </c>
@@ -2277,7 +2511,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A75" s="3">
         <v>45448</v>
       </c>
@@ -2297,7 +2531,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A76" s="3">
         <v>45448</v>
       </c>
@@ -2317,7 +2551,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A77" s="3">
         <v>45449</v>
       </c>
@@ -2337,7 +2571,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A78" s="3">
         <v>45449</v>
       </c>
@@ -2357,7 +2591,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A79" s="3">
         <v>45449</v>
       </c>
@@ -2377,7 +2611,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A80" s="3">
         <v>45449</v>
       </c>
@@ -2397,7 +2631,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A81" s="3">
         <v>45449</v>
       </c>
@@ -2417,7 +2651,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A82" s="3">
         <v>45449</v>
       </c>
@@ -2437,7 +2671,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A83" s="3">
         <v>45449</v>
       </c>
@@ -2457,7 +2691,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A84" s="3">
         <v>45449</v>
       </c>
@@ -2477,7 +2711,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A85" s="3">
         <v>45450</v>
       </c>
@@ -2497,7 +2731,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A86" s="3">
         <v>45450</v>
       </c>
@@ -2517,7 +2751,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A87" s="3">
         <v>45450</v>
       </c>
@@ -2537,7 +2771,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A88" s="3">
         <v>45451</v>
       </c>
@@ -2557,7 +2791,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A89" s="3">
         <v>45451</v>
       </c>
@@ -2577,7 +2811,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A90" s="3">
         <v>45451</v>
       </c>
@@ -2597,7 +2831,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A91" s="3">
         <v>45452</v>
       </c>
@@ -2617,7 +2851,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A92" s="3">
         <v>45452</v>
       </c>
@@ -2637,7 +2871,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A93" s="3">
         <v>45452</v>
       </c>
@@ -2657,7 +2891,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A94" s="3">
         <v>45452</v>
       </c>
@@ -2677,7 +2911,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A95" s="3">
         <v>45452</v>
       </c>
@@ -2697,7 +2931,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A96" s="3">
         <v>45452</v>
       </c>
@@ -2717,7 +2951,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A97" s="3">
         <v>45452</v>
       </c>
@@ -2737,7 +2971,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A98" s="3">
         <v>45453</v>
       </c>
@@ -2757,7 +2991,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A99" s="3">
         <v>45453</v>
       </c>
@@ -2777,7 +3011,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A100" s="3">
         <v>45453</v>
       </c>
@@ -2797,7 +3031,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A101" s="3">
         <v>45454</v>
       </c>
@@ -2817,7 +3051,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A102" s="3">
         <v>45454</v>
       </c>
@@ -2837,7 +3071,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A103" s="3">
         <v>45455</v>
       </c>
@@ -2857,7 +3091,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A104" s="3">
         <v>45455</v>
       </c>
@@ -2877,7 +3111,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A105" s="3">
         <v>45455</v>
       </c>
@@ -2897,7 +3131,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A106" s="3">
         <v>45456</v>
       </c>
@@ -2917,7 +3151,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A107" s="3">
         <v>45456</v>
       </c>
@@ -2937,7 +3171,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A108" s="3">
         <v>45456</v>
       </c>
@@ -2957,7 +3191,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A109" s="3">
         <v>45456</v>
       </c>
@@ -2977,7 +3211,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="110" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A110" s="3">
         <v>45457</v>
       </c>
@@ -2997,7 +3231,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="111" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A111" s="3">
         <v>45457</v>
       </c>
@@ -3017,7 +3251,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A112" s="3">
         <v>45457</v>
       </c>
@@ -3037,7 +3271,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="113" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A113" s="3">
         <v>45457</v>
       </c>
@@ -3057,7 +3291,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="114" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A114" s="3">
         <v>45457</v>
       </c>
@@ -3077,7 +3311,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="115" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A115" s="3">
         <v>45458</v>
       </c>
@@ -3097,7 +3331,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="116" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A116" s="3">
         <v>45458</v>
       </c>
@@ -3117,7 +3351,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="117" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A117" s="3">
         <v>45458</v>
       </c>
@@ -3137,7 +3371,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="118" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A118" s="3">
         <v>45459</v>
       </c>
@@ -3157,7 +3391,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="119" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A119" s="3">
         <v>45459</v>
       </c>
@@ -3177,7 +3411,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="120" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A120" s="3">
         <v>45459</v>
       </c>
@@ -3197,7 +3431,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="121" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A121" s="3">
         <v>45460</v>
       </c>
@@ -3217,7 +3451,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="122" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A122" s="3">
         <v>45460</v>
       </c>
@@ -3237,7 +3471,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="123" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A123" s="3">
         <v>45460</v>
       </c>
@@ -3257,7 +3491,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="124" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A124" s="3">
         <v>45461</v>
       </c>
@@ -3277,7 +3511,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="125" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A125" s="3">
         <v>45461</v>
       </c>
@@ -3297,7 +3531,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="126" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A126" s="3">
         <v>45462</v>
       </c>
@@ -3317,7 +3551,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="127" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A127" s="3">
         <v>45462</v>
       </c>
@@ -3337,7 +3571,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="128" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A128" s="3">
         <v>45462</v>
       </c>
@@ -3357,7 +3591,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="129" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A129" s="3">
         <v>45462</v>
       </c>
@@ -3377,7 +3611,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="130" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A130" s="3">
         <v>45462</v>
       </c>
@@ -3397,7 +3631,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="131" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A131" s="3">
         <v>45463</v>
       </c>
@@ -3415,6 +3649,1686 @@
       </c>
       <c r="F131" t="s">
         <v>9</v>
+      </c>
+    </row>
+    <row r="132" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A132" s="3">
+        <v>45469</v>
+      </c>
+      <c r="B132" t="s">
+        <v>124</v>
+      </c>
+      <c r="C132" t="s">
+        <v>55</v>
+      </c>
+      <c r="D132" t="s">
+        <v>8</v>
+      </c>
+      <c r="E132" t="s">
+        <v>37</v>
+      </c>
+      <c r="F132" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="133" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A133" s="3">
+        <v>45469</v>
+      </c>
+      <c r="B133" t="s">
+        <v>55</v>
+      </c>
+      <c r="C133" t="s">
+        <v>125</v>
+      </c>
+      <c r="D133" t="s">
+        <v>8</v>
+      </c>
+      <c r="E133" t="s">
+        <v>40</v>
+      </c>
+      <c r="F133" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="134" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A134" s="3">
+        <v>45469</v>
+      </c>
+      <c r="B134" t="s">
+        <v>125</v>
+      </c>
+      <c r="C134" t="s">
+        <v>41</v>
+      </c>
+      <c r="D134" t="s">
+        <v>8</v>
+      </c>
+      <c r="E134" t="s">
+        <v>37</v>
+      </c>
+      <c r="F134" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="135" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A135" s="3">
+        <v>45470</v>
+      </c>
+      <c r="B135" t="s">
+        <v>34</v>
+      </c>
+      <c r="C135" t="s">
+        <v>127</v>
+      </c>
+      <c r="D135" t="s">
+        <v>8</v>
+      </c>
+      <c r="E135" t="s">
+        <v>37</v>
+      </c>
+      <c r="F135" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="136" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A136" s="3">
+        <v>45470</v>
+      </c>
+      <c r="B136" t="s">
+        <v>127</v>
+      </c>
+      <c r="C136" t="s">
+        <v>128</v>
+      </c>
+      <c r="D136" t="s">
+        <v>32</v>
+      </c>
+      <c r="E136" t="s">
+        <v>33</v>
+      </c>
+      <c r="F136" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="137" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A137" s="3">
+        <v>45470</v>
+      </c>
+      <c r="B137" t="s">
+        <v>128</v>
+      </c>
+      <c r="C137" t="s">
+        <v>129</v>
+      </c>
+      <c r="D137" t="s">
+        <v>130</v>
+      </c>
+      <c r="E137" t="s">
+        <v>37</v>
+      </c>
+      <c r="F137" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="138" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A138" s="3">
+        <v>45470</v>
+      </c>
+      <c r="B138" t="s">
+        <v>129</v>
+      </c>
+      <c r="C138" t="s">
+        <v>131</v>
+      </c>
+      <c r="D138" t="s">
+        <v>130</v>
+      </c>
+      <c r="E138" t="s">
+        <v>39</v>
+      </c>
+      <c r="F138" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="139" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A139" s="3">
+        <v>45470</v>
+      </c>
+      <c r="B139" t="s">
+        <v>131</v>
+      </c>
+      <c r="C139" t="s">
+        <v>41</v>
+      </c>
+      <c r="D139" t="s">
+        <v>130</v>
+      </c>
+      <c r="E139" t="s">
+        <v>53</v>
+      </c>
+      <c r="F139" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="140" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A140" s="3">
+        <v>45471</v>
+      </c>
+      <c r="B140" t="s">
+        <v>34</v>
+      </c>
+      <c r="C140" t="s">
+        <v>133</v>
+      </c>
+      <c r="D140" t="s">
+        <v>130</v>
+      </c>
+      <c r="E140" t="s">
+        <v>53</v>
+      </c>
+      <c r="F140" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="141" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A141" s="3">
+        <v>45471</v>
+      </c>
+      <c r="B141" t="s">
+        <v>133</v>
+      </c>
+      <c r="C141" t="s">
+        <v>134</v>
+      </c>
+      <c r="D141" t="s">
+        <v>130</v>
+      </c>
+      <c r="E141" t="s">
+        <v>39</v>
+      </c>
+      <c r="F141" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="142" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A142" s="3">
+        <v>45471</v>
+      </c>
+      <c r="B142" t="s">
+        <v>134</v>
+      </c>
+      <c r="C142" t="s">
+        <v>41</v>
+      </c>
+      <c r="D142" t="s">
+        <v>130</v>
+      </c>
+      <c r="E142" t="s">
+        <v>39</v>
+      </c>
+      <c r="F142" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="143" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A143" s="3">
+        <v>45472</v>
+      </c>
+      <c r="B143" t="s">
+        <v>34</v>
+      </c>
+      <c r="C143" t="s">
+        <v>135</v>
+      </c>
+      <c r="D143" t="s">
+        <v>130</v>
+      </c>
+      <c r="E143" t="s">
+        <v>39</v>
+      </c>
+      <c r="F143" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="144" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A144" s="3">
+        <v>45472</v>
+      </c>
+      <c r="B144" t="s">
+        <v>135</v>
+      </c>
+      <c r="C144" t="s">
+        <v>136</v>
+      </c>
+      <c r="D144" t="s">
+        <v>130</v>
+      </c>
+      <c r="E144" t="s">
+        <v>39</v>
+      </c>
+      <c r="F144" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="145" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A145" s="3">
+        <v>45472</v>
+      </c>
+      <c r="B145" t="s">
+        <v>136</v>
+      </c>
+      <c r="C145" t="s">
+        <v>41</v>
+      </c>
+      <c r="D145" t="s">
+        <v>130</v>
+      </c>
+      <c r="E145" t="s">
+        <v>39</v>
+      </c>
+      <c r="F145" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="146" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A146" s="3">
+        <v>45473</v>
+      </c>
+      <c r="B146" t="s">
+        <v>34</v>
+      </c>
+      <c r="C146" t="s">
+        <v>41</v>
+      </c>
+      <c r="D146" t="s">
+        <v>130</v>
+      </c>
+      <c r="E146" t="s">
+        <v>39</v>
+      </c>
+      <c r="F146" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="147" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A147" s="3">
+        <v>45474</v>
+      </c>
+      <c r="B147" t="s">
+        <v>34</v>
+      </c>
+      <c r="C147" t="s">
+        <v>137</v>
+      </c>
+      <c r="D147" t="s">
+        <v>130</v>
+      </c>
+      <c r="E147" t="s">
+        <v>39</v>
+      </c>
+      <c r="F147" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="148" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A148" s="3">
+        <v>45474</v>
+      </c>
+      <c r="B148" t="s">
+        <v>137</v>
+      </c>
+      <c r="C148" t="s">
+        <v>138</v>
+      </c>
+      <c r="D148" t="s">
+        <v>130</v>
+      </c>
+      <c r="E148" t="s">
+        <v>39</v>
+      </c>
+      <c r="F148" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="149" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A149" s="3">
+        <v>45474</v>
+      </c>
+      <c r="B149" t="s">
+        <v>139</v>
+      </c>
+      <c r="C149" t="s">
+        <v>140</v>
+      </c>
+      <c r="D149" t="s">
+        <v>130</v>
+      </c>
+      <c r="E149" t="s">
+        <v>37</v>
+      </c>
+      <c r="F149" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="150" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A150" s="3">
+        <v>45474</v>
+      </c>
+      <c r="B150" t="s">
+        <v>140</v>
+      </c>
+      <c r="C150" t="s">
+        <v>41</v>
+      </c>
+      <c r="D150" t="s">
+        <v>32</v>
+      </c>
+      <c r="E150" t="s">
+        <v>33</v>
+      </c>
+      <c r="F150" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="151" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A151" s="3">
+        <v>45475</v>
+      </c>
+      <c r="B151" t="s">
+        <v>34</v>
+      </c>
+      <c r="C151" t="s">
+        <v>141</v>
+      </c>
+      <c r="D151" t="s">
+        <v>32</v>
+      </c>
+      <c r="E151" t="s">
+        <v>33</v>
+      </c>
+      <c r="F151" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="152" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A152" s="3">
+        <v>45475</v>
+      </c>
+      <c r="B152" t="s">
+        <v>141</v>
+      </c>
+      <c r="C152" t="s">
+        <v>142</v>
+      </c>
+      <c r="D152" t="s">
+        <v>143</v>
+      </c>
+      <c r="E152" t="s">
+        <v>37</v>
+      </c>
+      <c r="F152" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="153" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A153" s="3">
+        <v>45475</v>
+      </c>
+      <c r="B153" t="s">
+        <v>142</v>
+      </c>
+      <c r="C153" t="s">
+        <v>144</v>
+      </c>
+      <c r="D153" t="s">
+        <v>143</v>
+      </c>
+      <c r="E153" t="s">
+        <v>39</v>
+      </c>
+      <c r="F153" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="154" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A154" s="3">
+        <v>45475</v>
+      </c>
+      <c r="B154" t="s">
+        <v>144</v>
+      </c>
+      <c r="C154" t="s">
+        <v>41</v>
+      </c>
+      <c r="D154" t="s">
+        <v>143</v>
+      </c>
+      <c r="E154" t="s">
+        <v>39</v>
+      </c>
+      <c r="F154" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="155" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A155" s="3">
+        <v>45476</v>
+      </c>
+      <c r="B155" t="s">
+        <v>34</v>
+      </c>
+      <c r="C155" t="s">
+        <v>41</v>
+      </c>
+      <c r="D155" t="s">
+        <v>143</v>
+      </c>
+      <c r="E155" t="s">
+        <v>39</v>
+      </c>
+      <c r="F155" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="156" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A156" s="3">
+        <v>45477</v>
+      </c>
+      <c r="B156" t="s">
+        <v>34</v>
+      </c>
+      <c r="C156" t="s">
+        <v>145</v>
+      </c>
+      <c r="D156" t="s">
+        <v>143</v>
+      </c>
+      <c r="E156" t="s">
+        <v>39</v>
+      </c>
+      <c r="F156" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="157" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A157" s="3">
+        <v>45477</v>
+      </c>
+      <c r="B157" t="s">
+        <v>145</v>
+      </c>
+      <c r="C157" t="s">
+        <v>146</v>
+      </c>
+      <c r="D157" t="s">
+        <v>143</v>
+      </c>
+      <c r="E157" t="s">
+        <v>39</v>
+      </c>
+      <c r="F157" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="158" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A158" s="3">
+        <v>45477</v>
+      </c>
+      <c r="B158" t="s">
+        <v>147</v>
+      </c>
+      <c r="C158" t="s">
+        <v>148</v>
+      </c>
+      <c r="D158" t="s">
+        <v>143</v>
+      </c>
+      <c r="E158" t="s">
+        <v>37</v>
+      </c>
+      <c r="F158" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="159" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A159" s="3">
+        <v>45477</v>
+      </c>
+      <c r="B159" t="s">
+        <v>148</v>
+      </c>
+      <c r="C159" t="s">
+        <v>41</v>
+      </c>
+      <c r="D159" t="s">
+        <v>32</v>
+      </c>
+      <c r="E159" t="s">
+        <v>33</v>
+      </c>
+      <c r="F159" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="160" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A160" s="3">
+        <v>45478</v>
+      </c>
+      <c r="B160" t="s">
+        <v>34</v>
+      </c>
+      <c r="C160" t="s">
+        <v>48</v>
+      </c>
+      <c r="D160" t="s">
+        <v>32</v>
+      </c>
+      <c r="E160" t="s">
+        <v>33</v>
+      </c>
+      <c r="F160" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="161" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A161" s="3">
+        <v>45478</v>
+      </c>
+      <c r="B161" t="s">
+        <v>48</v>
+      </c>
+      <c r="C161" t="s">
+        <v>149</v>
+      </c>
+      <c r="D161" t="s">
+        <v>150</v>
+      </c>
+      <c r="E161" t="s">
+        <v>37</v>
+      </c>
+      <c r="F161" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="162" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A162" s="3">
+        <v>45478</v>
+      </c>
+      <c r="B162" t="s">
+        <v>151</v>
+      </c>
+      <c r="C162" t="s">
+        <v>152</v>
+      </c>
+      <c r="D162" t="s">
+        <v>150</v>
+      </c>
+      <c r="E162" t="s">
+        <v>39</v>
+      </c>
+      <c r="F162" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="163" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A163" s="3">
+        <v>45478</v>
+      </c>
+      <c r="B163" t="s">
+        <v>153</v>
+      </c>
+      <c r="C163" t="s">
+        <v>154</v>
+      </c>
+      <c r="D163" t="s">
+        <v>150</v>
+      </c>
+      <c r="E163" t="s">
+        <v>39</v>
+      </c>
+      <c r="F163" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="164" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A164" s="3">
+        <v>45478</v>
+      </c>
+      <c r="B164" t="s">
+        <v>154</v>
+      </c>
+      <c r="C164" t="s">
+        <v>155</v>
+      </c>
+      <c r="D164" t="s">
+        <v>150</v>
+      </c>
+      <c r="E164" t="s">
+        <v>37</v>
+      </c>
+      <c r="F164" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="165" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A165" s="3">
+        <v>45478</v>
+      </c>
+      <c r="B165" t="s">
+        <v>155</v>
+      </c>
+      <c r="C165" t="s">
+        <v>41</v>
+      </c>
+      <c r="D165" t="s">
+        <v>150</v>
+      </c>
+      <c r="E165" t="s">
+        <v>39</v>
+      </c>
+      <c r="F165" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="166" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A166" s="3">
+        <v>45479</v>
+      </c>
+      <c r="B166" t="s">
+        <v>34</v>
+      </c>
+      <c r="C166" t="s">
+        <v>156</v>
+      </c>
+      <c r="D166" t="s">
+        <v>150</v>
+      </c>
+      <c r="E166" t="s">
+        <v>39</v>
+      </c>
+      <c r="F166" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="167" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A167" s="3">
+        <v>45479</v>
+      </c>
+      <c r="B167" t="s">
+        <v>156</v>
+      </c>
+      <c r="C167" t="s">
+        <v>157</v>
+      </c>
+      <c r="D167" t="s">
+        <v>150</v>
+      </c>
+      <c r="E167" t="s">
+        <v>39</v>
+      </c>
+      <c r="F167" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="168" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A168" s="3">
+        <v>45479</v>
+      </c>
+      <c r="B168" t="s">
+        <v>157</v>
+      </c>
+      <c r="C168" t="s">
+        <v>23</v>
+      </c>
+      <c r="D168" t="s">
+        <v>150</v>
+      </c>
+      <c r="E168" t="s">
+        <v>39</v>
+      </c>
+      <c r="F168" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="169" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A169" s="3">
+        <v>45479</v>
+      </c>
+      <c r="B169" t="s">
+        <v>23</v>
+      </c>
+      <c r="C169" t="s">
+        <v>41</v>
+      </c>
+      <c r="D169" t="s">
+        <v>150</v>
+      </c>
+      <c r="E169" t="s">
+        <v>39</v>
+      </c>
+      <c r="F169" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="170" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A170" s="3">
+        <v>45480</v>
+      </c>
+      <c r="B170" t="s">
+        <v>34</v>
+      </c>
+      <c r="C170" t="s">
+        <v>41</v>
+      </c>
+      <c r="D170" t="s">
+        <v>150</v>
+      </c>
+      <c r="E170" t="s">
+        <v>39</v>
+      </c>
+      <c r="F170" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="171" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A171" s="3">
+        <v>45481</v>
+      </c>
+      <c r="B171" t="s">
+        <v>34</v>
+      </c>
+      <c r="C171" t="s">
+        <v>41</v>
+      </c>
+      <c r="D171" t="s">
+        <v>150</v>
+      </c>
+      <c r="E171" t="s">
+        <v>39</v>
+      </c>
+      <c r="F171" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="172" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A172" s="3">
+        <v>45482</v>
+      </c>
+      <c r="B172" t="s">
+        <v>34</v>
+      </c>
+      <c r="C172" t="s">
+        <v>158</v>
+      </c>
+      <c r="D172" t="s">
+        <v>150</v>
+      </c>
+      <c r="E172" t="s">
+        <v>39</v>
+      </c>
+      <c r="F172" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="173" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A173" s="3">
+        <v>45482</v>
+      </c>
+      <c r="B173" t="s">
+        <v>158</v>
+      </c>
+      <c r="C173" t="s">
+        <v>41</v>
+      </c>
+      <c r="D173" t="s">
+        <v>150</v>
+      </c>
+      <c r="E173" t="s">
+        <v>39</v>
+      </c>
+      <c r="F173" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="174" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A174" s="3">
+        <v>45483</v>
+      </c>
+      <c r="B174" t="s">
+        <v>34</v>
+      </c>
+      <c r="C174" t="s">
+        <v>135</v>
+      </c>
+      <c r="D174" t="s">
+        <v>150</v>
+      </c>
+      <c r="E174" t="s">
+        <v>39</v>
+      </c>
+      <c r="F174" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="175" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A175" s="3">
+        <v>45483</v>
+      </c>
+      <c r="B175" t="s">
+        <v>159</v>
+      </c>
+      <c r="C175" t="s">
+        <v>160</v>
+      </c>
+      <c r="D175" t="s">
+        <v>150</v>
+      </c>
+      <c r="E175" t="s">
+        <v>39</v>
+      </c>
+      <c r="F175" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="176" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A176" s="3">
+        <v>45483</v>
+      </c>
+      <c r="B176" t="s">
+        <v>161</v>
+      </c>
+      <c r="C176" t="s">
+        <v>162</v>
+      </c>
+      <c r="D176" t="s">
+        <v>150</v>
+      </c>
+      <c r="E176" t="s">
+        <v>44</v>
+      </c>
+      <c r="F176" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="177" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A177" s="3">
+        <v>45483</v>
+      </c>
+      <c r="B177" t="s">
+        <v>162</v>
+      </c>
+      <c r="C177" t="s">
+        <v>41</v>
+      </c>
+      <c r="D177" t="s">
+        <v>150</v>
+      </c>
+      <c r="E177" t="s">
+        <v>39</v>
+      </c>
+      <c r="F177" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="178" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A178" s="3">
+        <v>45484</v>
+      </c>
+      <c r="B178" t="s">
+        <v>34</v>
+      </c>
+      <c r="C178" t="s">
+        <v>163</v>
+      </c>
+      <c r="D178" t="s">
+        <v>150</v>
+      </c>
+      <c r="E178" t="s">
+        <v>39</v>
+      </c>
+      <c r="F178" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="179" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A179" s="3">
+        <v>45484</v>
+      </c>
+      <c r="B179" t="s">
+        <v>163</v>
+      </c>
+      <c r="C179" t="s">
+        <v>47</v>
+      </c>
+      <c r="D179" t="s">
+        <v>150</v>
+      </c>
+      <c r="E179" t="s">
+        <v>37</v>
+      </c>
+      <c r="F179" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="180" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A180" s="3">
+        <v>45484</v>
+      </c>
+      <c r="B180" t="s">
+        <v>47</v>
+      </c>
+      <c r="C180" t="s">
+        <v>41</v>
+      </c>
+      <c r="D180" t="s">
+        <v>32</v>
+      </c>
+      <c r="E180" t="s">
+        <v>33</v>
+      </c>
+      <c r="F180" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="181" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A181" s="3">
+        <v>45485</v>
+      </c>
+      <c r="B181" t="s">
+        <v>34</v>
+      </c>
+      <c r="C181" t="s">
+        <v>164</v>
+      </c>
+      <c r="D181" t="s">
+        <v>32</v>
+      </c>
+      <c r="E181" t="s">
+        <v>33</v>
+      </c>
+      <c r="F181" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="182" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A182" s="3">
+        <v>45485</v>
+      </c>
+      <c r="B182" t="s">
+        <v>164</v>
+      </c>
+      <c r="C182" t="s">
+        <v>165</v>
+      </c>
+      <c r="D182" t="s">
+        <v>166</v>
+      </c>
+      <c r="E182" t="s">
+        <v>37</v>
+      </c>
+      <c r="F182" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="183" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A183" s="3">
+        <v>45485</v>
+      </c>
+      <c r="B183" t="s">
+        <v>165</v>
+      </c>
+      <c r="C183" t="s">
+        <v>167</v>
+      </c>
+      <c r="D183" t="s">
+        <v>166</v>
+      </c>
+      <c r="E183" t="s">
+        <v>39</v>
+      </c>
+      <c r="F183" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="184" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A184" s="3">
+        <v>45485</v>
+      </c>
+      <c r="B184" t="s">
+        <v>169</v>
+      </c>
+      <c r="C184" t="s">
+        <v>41</v>
+      </c>
+      <c r="D184" t="s">
+        <v>166</v>
+      </c>
+      <c r="E184" t="s">
+        <v>39</v>
+      </c>
+      <c r="F184" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="185" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A185" s="3">
+        <v>45486</v>
+      </c>
+      <c r="B185" t="s">
+        <v>34</v>
+      </c>
+      <c r="C185" t="s">
+        <v>41</v>
+      </c>
+      <c r="D185" t="s">
+        <v>166</v>
+      </c>
+      <c r="E185" t="s">
+        <v>39</v>
+      </c>
+      <c r="F185" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="186" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A186" s="3">
+        <v>45487</v>
+      </c>
+      <c r="B186" t="s">
+        <v>34</v>
+      </c>
+      <c r="C186" t="s">
+        <v>171</v>
+      </c>
+      <c r="D186" t="s">
+        <v>166</v>
+      </c>
+      <c r="E186" t="s">
+        <v>39</v>
+      </c>
+      <c r="F186" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="187" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A187" s="3">
+        <v>45487</v>
+      </c>
+      <c r="B187" t="s">
+        <v>172</v>
+      </c>
+      <c r="C187" t="s">
+        <v>41</v>
+      </c>
+      <c r="D187" t="s">
+        <v>166</v>
+      </c>
+      <c r="E187" t="s">
+        <v>39</v>
+      </c>
+      <c r="F187" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="188" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A188" s="3">
+        <v>45488</v>
+      </c>
+      <c r="B188" t="s">
+        <v>34</v>
+      </c>
+      <c r="C188" t="s">
+        <v>174</v>
+      </c>
+      <c r="D188" t="s">
+        <v>166</v>
+      </c>
+      <c r="E188" t="s">
+        <v>39</v>
+      </c>
+      <c r="F188" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="189" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A189" s="3">
+        <v>45488</v>
+      </c>
+      <c r="B189" t="s">
+        <v>174</v>
+      </c>
+      <c r="C189" t="s">
+        <v>41</v>
+      </c>
+      <c r="D189" t="s">
+        <v>166</v>
+      </c>
+      <c r="E189" t="s">
+        <v>39</v>
+      </c>
+      <c r="F189" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="190" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A190" s="3">
+        <v>45489</v>
+      </c>
+      <c r="B190" t="s">
+        <v>34</v>
+      </c>
+      <c r="C190" t="s">
+        <v>175</v>
+      </c>
+      <c r="D190" t="s">
+        <v>166</v>
+      </c>
+      <c r="E190" t="s">
+        <v>39</v>
+      </c>
+      <c r="F190" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="191" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A191" s="3">
+        <v>45489</v>
+      </c>
+      <c r="B191" t="s">
+        <v>175</v>
+      </c>
+      <c r="C191" t="s">
+        <v>41</v>
+      </c>
+      <c r="D191" t="s">
+        <v>166</v>
+      </c>
+      <c r="E191" t="s">
+        <v>39</v>
+      </c>
+      <c r="F191" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="192" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A192" s="3">
+        <v>45490</v>
+      </c>
+      <c r="B192" t="s">
+        <v>34</v>
+      </c>
+      <c r="C192" t="s">
+        <v>176</v>
+      </c>
+      <c r="D192" t="s">
+        <v>166</v>
+      </c>
+      <c r="E192" t="s">
+        <v>39</v>
+      </c>
+      <c r="F192" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="193" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A193" s="3">
+        <v>45490</v>
+      </c>
+      <c r="B193" t="s">
+        <v>176</v>
+      </c>
+      <c r="C193" t="s">
+        <v>177</v>
+      </c>
+      <c r="D193" t="s">
+        <v>166</v>
+      </c>
+      <c r="E193" t="s">
+        <v>39</v>
+      </c>
+      <c r="F193" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="194" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A194" s="3">
+        <v>45490</v>
+      </c>
+      <c r="B194" t="s">
+        <v>177</v>
+      </c>
+      <c r="C194" t="s">
+        <v>41</v>
+      </c>
+      <c r="D194" t="s">
+        <v>166</v>
+      </c>
+      <c r="E194" t="s">
+        <v>44</v>
+      </c>
+      <c r="F194" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="195" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A195" s="3">
+        <v>45491</v>
+      </c>
+      <c r="B195" t="s">
+        <v>34</v>
+      </c>
+      <c r="C195" t="s">
+        <v>178</v>
+      </c>
+      <c r="D195" t="s">
+        <v>166</v>
+      </c>
+      <c r="E195" t="s">
+        <v>44</v>
+      </c>
+      <c r="F195" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="196" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A196" s="3">
+        <v>45491</v>
+      </c>
+      <c r="B196" t="s">
+        <v>178</v>
+      </c>
+      <c r="C196" t="s">
+        <v>145</v>
+      </c>
+      <c r="D196" t="s">
+        <v>166</v>
+      </c>
+      <c r="E196" t="s">
+        <v>37</v>
+      </c>
+      <c r="F196" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="197" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A197" s="3">
+        <v>45491</v>
+      </c>
+      <c r="B197" t="s">
+        <v>179</v>
+      </c>
+      <c r="C197" t="s">
+        <v>180</v>
+      </c>
+      <c r="D197" t="s">
+        <v>32</v>
+      </c>
+      <c r="E197" t="s">
+        <v>181</v>
+      </c>
+      <c r="F197" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="198" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A198" s="3">
+        <v>45491</v>
+      </c>
+      <c r="B198" t="s">
+        <v>180</v>
+      </c>
+      <c r="C198" t="s">
+        <v>41</v>
+      </c>
+      <c r="D198" t="s">
+        <v>182</v>
+      </c>
+      <c r="E198" t="s">
+        <v>9</v>
+      </c>
+      <c r="F198" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="199" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A199" s="3">
+        <v>45492</v>
+      </c>
+      <c r="B199" t="s">
+        <v>34</v>
+      </c>
+      <c r="C199" t="s">
+        <v>183</v>
+      </c>
+      <c r="D199" t="s">
+        <v>182</v>
+      </c>
+      <c r="E199" t="s">
+        <v>9</v>
+      </c>
+      <c r="F199" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="200" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A200" s="3">
+        <v>45492</v>
+      </c>
+      <c r="B200" t="s">
+        <v>183</v>
+      </c>
+      <c r="C200" t="s">
+        <v>41</v>
+      </c>
+      <c r="D200" t="s">
+        <v>32</v>
+      </c>
+      <c r="E200" t="s">
+        <v>181</v>
+      </c>
+      <c r="F200" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="201" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A201" s="3">
+        <v>45493</v>
+      </c>
+      <c r="B201" t="s">
+        <v>34</v>
+      </c>
+      <c r="C201" t="s">
+        <v>41</v>
+      </c>
+      <c r="D201" t="s">
+        <v>32</v>
+      </c>
+      <c r="E201" t="s">
+        <v>181</v>
+      </c>
+      <c r="F201" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="202" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A202" s="3">
+        <v>45494</v>
+      </c>
+      <c r="B202" t="s">
+        <v>34</v>
+      </c>
+      <c r="C202" t="s">
+        <v>184</v>
+      </c>
+      <c r="D202" t="s">
+        <v>32</v>
+      </c>
+      <c r="E202" t="s">
+        <v>181</v>
+      </c>
+      <c r="F202" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="203" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A203" s="3">
+        <v>45494</v>
+      </c>
+      <c r="B203" t="s">
+        <v>184</v>
+      </c>
+      <c r="C203" t="s">
+        <v>185</v>
+      </c>
+      <c r="D203" t="s">
+        <v>186</v>
+      </c>
+      <c r="E203" t="s">
+        <v>37</v>
+      </c>
+      <c r="F203" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="204" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A204" s="3">
+        <v>45494</v>
+      </c>
+      <c r="B204" t="s">
+        <v>185</v>
+      </c>
+      <c r="C204" t="s">
+        <v>187</v>
+      </c>
+      <c r="D204" t="s">
+        <v>186</v>
+      </c>
+      <c r="E204" t="s">
+        <v>39</v>
+      </c>
+      <c r="F204" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="205" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A205" s="3">
+        <v>45494</v>
+      </c>
+      <c r="B205" t="s">
+        <v>188</v>
+      </c>
+      <c r="C205" t="s">
+        <v>189</v>
+      </c>
+      <c r="D205" t="s">
+        <v>186</v>
+      </c>
+      <c r="E205" t="s">
+        <v>39</v>
+      </c>
+      <c r="F205" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="206" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A206" s="3">
+        <v>45494</v>
+      </c>
+      <c r="B206" t="s">
+        <v>189</v>
+      </c>
+      <c r="C206" t="s">
+        <v>41</v>
+      </c>
+      <c r="D206" t="s">
+        <v>186</v>
+      </c>
+      <c r="E206" t="s">
+        <v>39</v>
+      </c>
+      <c r="F206" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="207" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A207" s="3">
+        <v>45495</v>
+      </c>
+      <c r="B207" t="s">
+        <v>34</v>
+      </c>
+      <c r="C207" t="s">
+        <v>191</v>
+      </c>
+      <c r="D207" t="s">
+        <v>186</v>
+      </c>
+      <c r="E207" t="s">
+        <v>39</v>
+      </c>
+      <c r="F207" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="208" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A208" s="3">
+        <v>45495</v>
+      </c>
+      <c r="B208" t="s">
+        <v>192</v>
+      </c>
+      <c r="C208" t="s">
+        <v>193</v>
+      </c>
+      <c r="D208" t="s">
+        <v>186</v>
+      </c>
+      <c r="E208" t="s">
+        <v>39</v>
+      </c>
+      <c r="F208" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="209" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A209" s="3">
+        <v>45495</v>
+      </c>
+      <c r="B209" t="s">
+        <v>194</v>
+      </c>
+      <c r="C209" t="s">
+        <v>41</v>
+      </c>
+      <c r="D209" t="s">
+        <v>186</v>
+      </c>
+      <c r="E209" t="s">
+        <v>39</v>
+      </c>
+      <c r="F209" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="210" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A210" s="3">
+        <v>45496</v>
+      </c>
+      <c r="B210" t="s">
+        <v>34</v>
+      </c>
+      <c r="C210" t="s">
+        <v>196</v>
+      </c>
+      <c r="D210" t="s">
+        <v>186</v>
+      </c>
+      <c r="E210" t="s">
+        <v>39</v>
+      </c>
+      <c r="F210" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="211" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A211" s="3">
+        <v>45496</v>
+      </c>
+      <c r="B211" t="s">
+        <v>197</v>
+      </c>
+      <c r="C211" t="s">
+        <v>198</v>
+      </c>
+      <c r="D211" t="s">
+        <v>186</v>
+      </c>
+      <c r="E211" t="s">
+        <v>44</v>
+      </c>
+      <c r="F211" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="212" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A212" s="3">
+        <v>45496</v>
+      </c>
+      <c r="B212" t="s">
+        <v>198</v>
+      </c>
+      <c r="C212" t="s">
+        <v>199</v>
+      </c>
+      <c r="D212" t="s">
+        <v>186</v>
+      </c>
+      <c r="E212" t="s">
+        <v>44</v>
+      </c>
+      <c r="F212" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="213" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A213" s="3">
+        <v>45496</v>
+      </c>
+      <c r="B213" t="s">
+        <v>199</v>
+      </c>
+      <c r="C213" t="s">
+        <v>41</v>
+      </c>
+      <c r="D213" t="s">
+        <v>186</v>
+      </c>
+      <c r="E213" t="s">
+        <v>39</v>
+      </c>
+      <c r="F213" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="214" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A214" s="3">
+        <v>45497</v>
+      </c>
+      <c r="B214" t="s">
+        <v>34</v>
+      </c>
+      <c r="C214" t="s">
+        <v>200</v>
+      </c>
+      <c r="D214" t="s">
+        <v>186</v>
+      </c>
+      <c r="E214" t="s">
+        <v>39</v>
+      </c>
+      <c r="F214" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="215" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A215" s="3">
+        <v>45497</v>
+      </c>
+      <c r="B215" t="s">
+        <v>200</v>
+      </c>
+      <c r="C215" t="s">
+        <v>41</v>
+      </c>
+      <c r="D215" t="s">
+        <v>186</v>
+      </c>
+      <c r="E215" t="s">
+        <v>39</v>
+      </c>
+      <c r="F215" t="s">
+        <v>201</v>
       </c>
     </row>
   </sheetData>

--- a/output_K.xlsx
+++ b/output_K.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\N9635226\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45C2B888-2670-49D8-B58E-AF424544C13B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41F3BD15-7090-4660-B5D2-02F8978F836E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15390" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14016" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1068" uniqueCount="202">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1123" uniqueCount="217">
   <si>
     <t>Date</t>
   </si>
@@ -632,6 +632,51 @@
   </si>
   <si>
     <t>Riser protector</t>
+  </si>
+  <si>
+    <t>02:49:00</t>
+  </si>
+  <si>
+    <t>02:18:00</t>
+  </si>
+  <si>
+    <t>03:07:00</t>
+  </si>
+  <si>
+    <t>Flooding</t>
+  </si>
+  <si>
+    <t>09:20:00</t>
+  </si>
+  <si>
+    <t>10:55:00</t>
+  </si>
+  <si>
+    <t>Metrology</t>
+  </si>
+  <si>
+    <t>12:19:00</t>
+  </si>
+  <si>
+    <t>Recover P/H</t>
+  </si>
+  <si>
+    <t>12:30:00</t>
+  </si>
+  <si>
+    <t>04:22:00</t>
+  </si>
+  <si>
+    <t>15:10:00</t>
+  </si>
+  <si>
+    <t>Paint</t>
+  </si>
+  <si>
+    <t>00:38:00</t>
+  </si>
+  <si>
+    <t>Hydrotest</t>
   </si>
 </sst>
 </file>
@@ -1017,21 +1062,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F215"/>
+  <dimension ref="A1:F226"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A193" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="C129" sqref="C129"/>
+    <sheetView tabSelected="1" topLeftCell="A205" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="C230" sqref="C230"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="17" style="3" customWidth="1"/>
-    <col min="4" max="4" width="25.5" customWidth="1"/>
-    <col min="5" max="5" width="11.25" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="25.44140625" customWidth="1"/>
+    <col min="5" max="5" width="11.21875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1051,7 +1096,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" s="3">
         <v>45433</v>
       </c>
@@ -1071,7 +1116,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" s="3">
         <v>45433</v>
       </c>
@@ -1091,7 +1136,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" s="3">
         <v>45433</v>
       </c>
@@ -1111,7 +1156,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" s="3">
         <v>45433</v>
       </c>
@@ -1131,7 +1176,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" s="3">
         <v>45433</v>
       </c>
@@ -1151,7 +1196,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" s="3">
         <v>45433</v>
       </c>
@@ -1171,7 +1216,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" s="3">
         <v>45433</v>
       </c>
@@ -1191,7 +1236,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" s="3">
         <v>45433</v>
       </c>
@@ -1211,7 +1256,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" s="3">
         <v>45433</v>
       </c>
@@ -1231,7 +1276,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" s="3">
         <v>45433</v>
       </c>
@@ -1251,7 +1296,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" s="3">
         <v>45433</v>
       </c>
@@ -1271,7 +1316,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" s="3">
         <v>45433</v>
       </c>
@@ -1291,7 +1336,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" s="3">
         <v>45433</v>
       </c>
@@ -1311,7 +1356,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" s="3">
         <v>45433</v>
       </c>
@@ -1331,7 +1376,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16" s="3">
         <v>45433</v>
       </c>
@@ -1351,7 +1396,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17" s="3">
         <v>45433</v>
       </c>
@@ -1371,7 +1416,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18" s="3">
         <v>45433</v>
       </c>
@@ -1391,7 +1436,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19" s="3">
         <v>45433</v>
       </c>
@@ -1411,7 +1456,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20" s="3">
         <v>45433</v>
       </c>
@@ -1431,7 +1476,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A21" s="3">
         <v>45433</v>
       </c>
@@ -1451,7 +1496,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A22" s="3">
         <v>45433</v>
       </c>
@@ -1471,7 +1516,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A23" s="3">
         <v>45433</v>
       </c>
@@ -1491,7 +1536,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A24" s="3">
         <v>45433</v>
       </c>
@@ -1511,7 +1556,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A25" s="3">
         <v>45434</v>
       </c>
@@ -1531,7 +1576,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A26" s="3">
         <v>45434</v>
       </c>
@@ -1551,7 +1596,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A27" s="3">
         <v>45434</v>
       </c>
@@ -1571,7 +1616,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A28" s="3">
         <v>45434</v>
       </c>
@@ -1591,7 +1636,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A29" s="3">
         <v>45435</v>
       </c>
@@ -1611,7 +1656,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A30" s="3">
         <v>45435</v>
       </c>
@@ -1631,7 +1676,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A31" s="3">
         <v>45436</v>
       </c>
@@ -1651,7 +1696,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A32" s="3">
         <v>45436</v>
       </c>
@@ -1671,7 +1716,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A33" s="3">
         <v>45436</v>
       </c>
@@ -1691,7 +1736,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A34" s="3">
         <v>45437</v>
       </c>
@@ -1711,7 +1756,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A35" s="3">
         <v>45437</v>
       </c>
@@ -1731,7 +1776,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A36" s="3">
         <v>45437</v>
       </c>
@@ -1751,7 +1796,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A37" s="3">
         <v>45437</v>
       </c>
@@ -1771,7 +1816,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A38" s="3">
         <v>45438</v>
       </c>
@@ -1791,7 +1836,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A39" s="3">
         <v>45438</v>
       </c>
@@ -1811,7 +1856,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A40" s="3">
         <v>45438</v>
       </c>
@@ -1831,7 +1876,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A41" s="3">
         <v>45439</v>
       </c>
@@ -1851,7 +1896,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A42" s="3">
         <v>45439</v>
       </c>
@@ -1871,7 +1916,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A43" s="3">
         <v>45439</v>
       </c>
@@ -1891,7 +1936,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A44" s="3">
         <v>45439</v>
       </c>
@@ -1911,7 +1956,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A45" s="3">
         <v>45439</v>
       </c>
@@ -1931,7 +1976,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A46" s="3">
         <v>45439</v>
       </c>
@@ -1951,7 +1996,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A47" s="3">
         <v>45439</v>
       </c>
@@ -1971,7 +2016,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A48" s="3">
         <v>45439</v>
       </c>
@@ -1991,7 +2036,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A49" s="3">
         <v>45440</v>
       </c>
@@ -2011,7 +2056,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A50" s="3">
         <v>45440</v>
       </c>
@@ -2031,7 +2076,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A51" s="3">
         <v>45441</v>
       </c>
@@ -2051,7 +2096,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A52" s="3">
         <v>45441</v>
       </c>
@@ -2071,7 +2116,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A53" s="3">
         <v>45441</v>
       </c>
@@ -2091,7 +2136,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A54" s="3">
         <v>45442</v>
       </c>
@@ -2111,7 +2156,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A55" s="3">
         <v>45442</v>
       </c>
@@ -2131,7 +2176,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A56" s="3">
         <v>45442</v>
       </c>
@@ -2151,7 +2196,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A57" s="3">
         <v>45442</v>
       </c>
@@ -2171,7 +2216,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A58" s="3">
         <v>45442</v>
       </c>
@@ -2191,7 +2236,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A59" s="3">
         <v>45443</v>
       </c>
@@ -2211,7 +2256,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A60" s="3">
         <v>45443</v>
       </c>
@@ -2231,7 +2276,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A61" s="3">
         <v>45443</v>
       </c>
@@ -2251,7 +2296,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A62" s="3">
         <v>45443</v>
       </c>
@@ -2271,7 +2316,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A63" s="3">
         <v>45443</v>
       </c>
@@ -2291,7 +2336,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A64" s="3">
         <v>45443</v>
       </c>
@@ -2311,7 +2356,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A65" s="3">
         <v>45444</v>
       </c>
@@ -2331,7 +2376,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A66" s="3">
         <v>45444</v>
       </c>
@@ -2351,7 +2396,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A67" s="3">
         <v>45445</v>
       </c>
@@ -2371,7 +2416,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A68" s="3">
         <v>45445</v>
       </c>
@@ -2391,7 +2436,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A69" s="3">
         <v>45445</v>
       </c>
@@ -2411,7 +2456,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A70" s="3">
         <v>45446</v>
       </c>
@@ -2431,7 +2476,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A71" s="3">
         <v>45447</v>
       </c>
@@ -2451,7 +2496,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A72" s="3">
         <v>45447</v>
       </c>
@@ -2471,7 +2516,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A73" s="3">
         <v>45448</v>
       </c>
@@ -2491,7 +2536,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A74" s="3">
         <v>45448</v>
       </c>
@@ -2511,7 +2556,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A75" s="3">
         <v>45448</v>
       </c>
@@ -2531,7 +2576,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A76" s="3">
         <v>45448</v>
       </c>
@@ -2551,7 +2596,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A77" s="3">
         <v>45449</v>
       </c>
@@ -2571,7 +2616,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A78" s="3">
         <v>45449</v>
       </c>
@@ -2591,7 +2636,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A79" s="3">
         <v>45449</v>
       </c>
@@ -2611,7 +2656,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A80" s="3">
         <v>45449</v>
       </c>
@@ -2631,7 +2676,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A81" s="3">
         <v>45449</v>
       </c>
@@ -2651,7 +2696,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A82" s="3">
         <v>45449</v>
       </c>
@@ -2671,7 +2716,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A83" s="3">
         <v>45449</v>
       </c>
@@ -2691,7 +2736,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A84" s="3">
         <v>45449</v>
       </c>
@@ -2711,7 +2756,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A85" s="3">
         <v>45450</v>
       </c>
@@ -2731,7 +2776,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A86" s="3">
         <v>45450</v>
       </c>
@@ -2751,7 +2796,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A87" s="3">
         <v>45450</v>
       </c>
@@ -2771,7 +2816,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A88" s="3">
         <v>45451</v>
       </c>
@@ -2791,7 +2836,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A89" s="3">
         <v>45451</v>
       </c>
@@ -2811,7 +2856,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A90" s="3">
         <v>45451</v>
       </c>
@@ -2831,7 +2876,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="91" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A91" s="3">
         <v>45452</v>
       </c>
@@ -2851,7 +2896,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="92" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A92" s="3">
         <v>45452</v>
       </c>
@@ -2871,7 +2916,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="93" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A93" s="3">
         <v>45452</v>
       </c>
@@ -2891,7 +2936,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="94" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A94" s="3">
         <v>45452</v>
       </c>
@@ -2911,7 +2956,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="95" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A95" s="3">
         <v>45452</v>
       </c>
@@ -2931,7 +2976,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="96" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A96" s="3">
         <v>45452</v>
       </c>
@@ -2951,7 +2996,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="97" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A97" s="3">
         <v>45452</v>
       </c>
@@ -2971,7 +3016,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="98" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A98" s="3">
         <v>45453</v>
       </c>
@@ -2991,7 +3036,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="99" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A99" s="3">
         <v>45453</v>
       </c>
@@ -3011,7 +3056,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="100" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A100" s="3">
         <v>45453</v>
       </c>
@@ -3031,7 +3076,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="101" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A101" s="3">
         <v>45454</v>
       </c>
@@ -3051,7 +3096,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="102" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A102" s="3">
         <v>45454</v>
       </c>
@@ -3071,7 +3116,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="103" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A103" s="3">
         <v>45455</v>
       </c>
@@ -3091,7 +3136,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="104" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A104" s="3">
         <v>45455</v>
       </c>
@@ -3111,7 +3156,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="105" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A105" s="3">
         <v>45455</v>
       </c>
@@ -3131,7 +3176,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="106" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A106" s="3">
         <v>45456</v>
       </c>
@@ -3151,7 +3196,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="107" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A107" s="3">
         <v>45456</v>
       </c>
@@ -3171,7 +3216,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="108" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A108" s="3">
         <v>45456</v>
       </c>
@@ -3191,7 +3236,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="109" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A109" s="3">
         <v>45456</v>
       </c>
@@ -3211,7 +3256,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="110" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="110" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A110" s="3">
         <v>45457</v>
       </c>
@@ -3231,7 +3276,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="111" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="111" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A111" s="3">
         <v>45457</v>
       </c>
@@ -3251,7 +3296,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="112" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A112" s="3">
         <v>45457</v>
       </c>
@@ -3271,7 +3316,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="113" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="113" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A113" s="3">
         <v>45457</v>
       </c>
@@ -3291,7 +3336,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="114" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="114" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A114" s="3">
         <v>45457</v>
       </c>
@@ -3311,7 +3356,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="115" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="115" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A115" s="3">
         <v>45458</v>
       </c>
@@ -3331,7 +3376,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="116" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="116" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A116" s="3">
         <v>45458</v>
       </c>
@@ -3351,7 +3396,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="117" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="117" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A117" s="3">
         <v>45458</v>
       </c>
@@ -3371,7 +3416,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="118" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="118" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A118" s="3">
         <v>45459</v>
       </c>
@@ -3391,7 +3436,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="119" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="119" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A119" s="3">
         <v>45459</v>
       </c>
@@ -3411,7 +3456,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="120" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="120" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A120" s="3">
         <v>45459</v>
       </c>
@@ -3431,7 +3476,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="121" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="121" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A121" s="3">
         <v>45460</v>
       </c>
@@ -3451,7 +3496,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="122" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="122" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A122" s="3">
         <v>45460</v>
       </c>
@@ -3471,7 +3516,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="123" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="123" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A123" s="3">
         <v>45460</v>
       </c>
@@ -3491,7 +3536,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="124" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="124" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A124" s="3">
         <v>45461</v>
       </c>
@@ -3511,7 +3556,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="125" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="125" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A125" s="3">
         <v>45461</v>
       </c>
@@ -3531,7 +3576,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="126" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="126" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A126" s="3">
         <v>45462</v>
       </c>
@@ -3551,7 +3596,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="127" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="127" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A127" s="3">
         <v>45462</v>
       </c>
@@ -3571,7 +3616,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="128" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="128" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A128" s="3">
         <v>45462</v>
       </c>
@@ -3591,7 +3636,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="129" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="129" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A129" s="3">
         <v>45462</v>
       </c>
@@ -3611,7 +3656,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="130" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="130" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A130" s="3">
         <v>45462</v>
       </c>
@@ -3631,7 +3676,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="131" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="131" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A131" s="3">
         <v>45463</v>
       </c>
@@ -3651,7 +3696,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="132" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="132" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A132" s="3">
         <v>45469</v>
       </c>
@@ -3671,7 +3716,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="133" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="133" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A133" s="3">
         <v>45469</v>
       </c>
@@ -3691,7 +3736,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="134" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="134" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A134" s="3">
         <v>45469</v>
       </c>
@@ -3711,7 +3756,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="135" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="135" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A135" s="3">
         <v>45470</v>
       </c>
@@ -3731,7 +3776,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="136" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="136" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A136" s="3">
         <v>45470</v>
       </c>
@@ -3751,7 +3796,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="137" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="137" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A137" s="3">
         <v>45470</v>
       </c>
@@ -3771,7 +3816,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="138" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="138" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A138" s="3">
         <v>45470</v>
       </c>
@@ -3791,7 +3836,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="139" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="139" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A139" s="3">
         <v>45470</v>
       </c>
@@ -3811,7 +3856,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="140" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="140" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A140" s="3">
         <v>45471</v>
       </c>
@@ -3831,7 +3876,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="141" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="141" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A141" s="3">
         <v>45471</v>
       </c>
@@ -3851,7 +3896,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="142" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="142" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A142" s="3">
         <v>45471</v>
       </c>
@@ -3871,7 +3916,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="143" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="143" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A143" s="3">
         <v>45472</v>
       </c>
@@ -3891,7 +3936,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="144" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="144" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A144" s="3">
         <v>45472</v>
       </c>
@@ -3911,7 +3956,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="145" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="145" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A145" s="3">
         <v>45472</v>
       </c>
@@ -3931,7 +3976,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="146" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="146" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A146" s="3">
         <v>45473</v>
       </c>
@@ -3951,7 +3996,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="147" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="147" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A147" s="3">
         <v>45474</v>
       </c>
@@ -3971,7 +4016,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="148" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="148" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A148" s="3">
         <v>45474</v>
       </c>
@@ -3991,7 +4036,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="149" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="149" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A149" s="3">
         <v>45474</v>
       </c>
@@ -4011,7 +4056,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="150" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="150" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A150" s="3">
         <v>45474</v>
       </c>
@@ -4031,7 +4076,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="151" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="151" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A151" s="3">
         <v>45475</v>
       </c>
@@ -4051,7 +4096,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="152" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="152" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A152" s="3">
         <v>45475</v>
       </c>
@@ -4071,7 +4116,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="153" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="153" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A153" s="3">
         <v>45475</v>
       </c>
@@ -4091,7 +4136,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="154" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="154" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A154" s="3">
         <v>45475</v>
       </c>
@@ -4111,7 +4156,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="155" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="155" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A155" s="3">
         <v>45476</v>
       </c>
@@ -4131,7 +4176,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="156" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="156" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A156" s="3">
         <v>45477</v>
       </c>
@@ -4151,7 +4196,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="157" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="157" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A157" s="3">
         <v>45477</v>
       </c>
@@ -4171,7 +4216,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="158" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="158" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A158" s="3">
         <v>45477</v>
       </c>
@@ -4191,7 +4236,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="159" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="159" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A159" s="3">
         <v>45477</v>
       </c>
@@ -4211,7 +4256,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="160" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="160" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A160" s="3">
         <v>45478</v>
       </c>
@@ -4231,7 +4276,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="161" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="161" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A161" s="3">
         <v>45478</v>
       </c>
@@ -4251,7 +4296,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="162" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="162" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A162" s="3">
         <v>45478</v>
       </c>
@@ -4271,7 +4316,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="163" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="163" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A163" s="3">
         <v>45478</v>
       </c>
@@ -4291,7 +4336,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="164" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="164" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A164" s="3">
         <v>45478</v>
       </c>
@@ -4311,7 +4356,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="165" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="165" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A165" s="3">
         <v>45478</v>
       </c>
@@ -4331,7 +4376,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="166" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="166" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A166" s="3">
         <v>45479</v>
       </c>
@@ -4351,7 +4396,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="167" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="167" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A167" s="3">
         <v>45479</v>
       </c>
@@ -4371,7 +4416,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="168" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="168" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A168" s="3">
         <v>45479</v>
       </c>
@@ -4391,7 +4436,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="169" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="169" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A169" s="3">
         <v>45479</v>
       </c>
@@ -4411,7 +4456,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="170" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="170" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A170" s="3">
         <v>45480</v>
       </c>
@@ -4431,7 +4476,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="171" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="171" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A171" s="3">
         <v>45481</v>
       </c>
@@ -4451,7 +4496,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="172" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="172" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A172" s="3">
         <v>45482</v>
       </c>
@@ -4471,7 +4516,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="173" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="173" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A173" s="3">
         <v>45482</v>
       </c>
@@ -4491,7 +4536,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="174" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="174" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A174" s="3">
         <v>45483</v>
       </c>
@@ -4511,7 +4556,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="175" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="175" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A175" s="3">
         <v>45483</v>
       </c>
@@ -4531,7 +4576,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="176" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="176" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A176" s="3">
         <v>45483</v>
       </c>
@@ -4551,7 +4596,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="177" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="177" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A177" s="3">
         <v>45483</v>
       </c>
@@ -4571,7 +4616,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="178" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="178" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A178" s="3">
         <v>45484</v>
       </c>
@@ -4591,7 +4636,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="179" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="179" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A179" s="3">
         <v>45484</v>
       </c>
@@ -4611,7 +4656,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="180" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="180" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A180" s="3">
         <v>45484</v>
       </c>
@@ -4631,7 +4676,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="181" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="181" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A181" s="3">
         <v>45485</v>
       </c>
@@ -4651,7 +4696,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="182" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="182" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A182" s="3">
         <v>45485</v>
       </c>
@@ -4671,7 +4716,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="183" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="183" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A183" s="3">
         <v>45485</v>
       </c>
@@ -4691,7 +4736,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="184" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="184" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A184" s="3">
         <v>45485</v>
       </c>
@@ -4711,7 +4756,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="185" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="185" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A185" s="3">
         <v>45486</v>
       </c>
@@ -4731,7 +4776,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="186" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="186" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A186" s="3">
         <v>45487</v>
       </c>
@@ -4751,7 +4796,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="187" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="187" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A187" s="3">
         <v>45487</v>
       </c>
@@ -4771,7 +4816,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="188" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="188" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A188" s="3">
         <v>45488</v>
       </c>
@@ -4791,7 +4836,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="189" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="189" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A189" s="3">
         <v>45488</v>
       </c>
@@ -4811,7 +4856,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="190" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="190" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A190" s="3">
         <v>45489</v>
       </c>
@@ -4831,7 +4876,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="191" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="191" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A191" s="3">
         <v>45489</v>
       </c>
@@ -4851,7 +4896,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="192" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="192" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A192" s="3">
         <v>45490</v>
       </c>
@@ -4871,7 +4916,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="193" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="193" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A193" s="3">
         <v>45490</v>
       </c>
@@ -4891,7 +4936,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="194" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="194" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A194" s="3">
         <v>45490</v>
       </c>
@@ -4911,7 +4956,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="195" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="195" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A195" s="3">
         <v>45491</v>
       </c>
@@ -4931,7 +4976,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="196" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="196" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A196" s="3">
         <v>45491</v>
       </c>
@@ -4951,7 +4996,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="197" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="197" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A197" s="3">
         <v>45491</v>
       </c>
@@ -4971,7 +5016,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="198" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="198" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A198" s="3">
         <v>45491</v>
       </c>
@@ -4991,7 +5036,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="199" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="199" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A199" s="3">
         <v>45492</v>
       </c>
@@ -5011,7 +5056,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="200" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="200" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A200" s="3">
         <v>45492</v>
       </c>
@@ -5031,7 +5076,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="201" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="201" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A201" s="3">
         <v>45493</v>
       </c>
@@ -5051,7 +5096,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="202" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="202" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A202" s="3">
         <v>45494</v>
       </c>
@@ -5071,7 +5116,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="203" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="203" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A203" s="3">
         <v>45494</v>
       </c>
@@ -5091,7 +5136,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="204" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="204" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A204" s="3">
         <v>45494</v>
       </c>
@@ -5111,7 +5156,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="205" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="205" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A205" s="3">
         <v>45494</v>
       </c>
@@ -5131,7 +5176,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="206" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="206" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A206" s="3">
         <v>45494</v>
       </c>
@@ -5151,7 +5196,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="207" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="207" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A207" s="3">
         <v>45495</v>
       </c>
@@ -5171,7 +5216,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="208" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="208" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A208" s="3">
         <v>45495</v>
       </c>
@@ -5191,7 +5236,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="209" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="209" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A209" s="3">
         <v>45495</v>
       </c>
@@ -5211,7 +5256,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="210" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="210" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A210" s="3">
         <v>45496</v>
       </c>
@@ -5231,7 +5276,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="211" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="211" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A211" s="3">
         <v>45496</v>
       </c>
@@ -5251,7 +5296,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="212" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="212" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A212" s="3">
         <v>45496</v>
       </c>
@@ -5271,7 +5316,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="213" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="213" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A213" s="3">
         <v>45496</v>
       </c>
@@ -5291,7 +5336,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="214" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="214" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A214" s="3">
         <v>45497</v>
       </c>
@@ -5311,7 +5356,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="215" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="215" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A215" s="3">
         <v>45497</v>
       </c>
@@ -5329,6 +5374,226 @@
       </c>
       <c r="F215" t="s">
         <v>201</v>
+      </c>
+    </row>
+    <row r="216" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A216" s="3">
+        <v>45498</v>
+      </c>
+      <c r="B216" t="s">
+        <v>34</v>
+      </c>
+      <c r="C216" t="s">
+        <v>202</v>
+      </c>
+      <c r="D216" t="s">
+        <v>186</v>
+      </c>
+      <c r="E216" t="s">
+        <v>39</v>
+      </c>
+      <c r="F216" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="217" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A217" s="3">
+        <v>45498</v>
+      </c>
+      <c r="B217" t="s">
+        <v>203</v>
+      </c>
+      <c r="C217" t="s">
+        <v>204</v>
+      </c>
+      <c r="D217" t="s">
+        <v>186</v>
+      </c>
+      <c r="E217" t="s">
+        <v>39</v>
+      </c>
+      <c r="F217" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="218" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A218" s="3">
+        <v>45498</v>
+      </c>
+      <c r="B218" t="s">
+        <v>204</v>
+      </c>
+      <c r="C218" t="s">
+        <v>206</v>
+      </c>
+      <c r="D218" t="s">
+        <v>186</v>
+      </c>
+      <c r="E218" t="s">
+        <v>39</v>
+      </c>
+      <c r="F218" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="219" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A219" s="3">
+        <v>45498</v>
+      </c>
+      <c r="B219" t="s">
+        <v>206</v>
+      </c>
+      <c r="C219" t="s">
+        <v>207</v>
+      </c>
+      <c r="D219" t="s">
+        <v>186</v>
+      </c>
+      <c r="E219" t="s">
+        <v>39</v>
+      </c>
+      <c r="F219" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="220" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A220" s="3">
+        <v>45498</v>
+      </c>
+      <c r="B220" t="s">
+        <v>207</v>
+      </c>
+      <c r="C220" t="s">
+        <v>209</v>
+      </c>
+      <c r="D220" t="s">
+        <v>186</v>
+      </c>
+      <c r="E220" t="s">
+        <v>39</v>
+      </c>
+      <c r="F220" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="221" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A221" s="3">
+        <v>45498</v>
+      </c>
+      <c r="B221" t="s">
+        <v>211</v>
+      </c>
+      <c r="C221" t="s">
+        <v>41</v>
+      </c>
+      <c r="D221" t="s">
+        <v>186</v>
+      </c>
+      <c r="E221" t="s">
+        <v>39</v>
+      </c>
+      <c r="F221" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="222" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A222" s="3">
+        <v>45499</v>
+      </c>
+      <c r="B222" t="s">
+        <v>34</v>
+      </c>
+      <c r="C222" t="s">
+        <v>212</v>
+      </c>
+      <c r="D222" t="s">
+        <v>186</v>
+      </c>
+      <c r="E222" t="s">
+        <v>39</v>
+      </c>
+      <c r="F222" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="223" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A223" s="3">
+        <v>45499</v>
+      </c>
+      <c r="B223" t="s">
+        <v>212</v>
+      </c>
+      <c r="C223" t="s">
+        <v>213</v>
+      </c>
+      <c r="D223" t="s">
+        <v>186</v>
+      </c>
+      <c r="E223" t="s">
+        <v>39</v>
+      </c>
+      <c r="F223" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="224" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A224" s="3">
+        <v>45499</v>
+      </c>
+      <c r="B224" t="s">
+        <v>213</v>
+      </c>
+      <c r="C224" t="s">
+        <v>41</v>
+      </c>
+      <c r="D224" t="s">
+        <v>186</v>
+      </c>
+      <c r="E224" t="s">
+        <v>39</v>
+      </c>
+      <c r="F224" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="225" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A225" s="3">
+        <v>45500</v>
+      </c>
+      <c r="B225" t="s">
+        <v>34</v>
+      </c>
+      <c r="C225" t="s">
+        <v>215</v>
+      </c>
+      <c r="D225" t="s">
+        <v>186</v>
+      </c>
+      <c r="E225" t="s">
+        <v>39</v>
+      </c>
+      <c r="F225" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="226" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A226" s="3">
+        <v>45500</v>
+      </c>
+      <c r="B226" t="s">
+        <v>215</v>
+      </c>
+      <c r="C226" t="s">
+        <v>41</v>
+      </c>
+      <c r="D226" t="s">
+        <v>186</v>
+      </c>
+      <c r="E226" t="s">
+        <v>39</v>
+      </c>
+      <c r="F226" t="s">
+        <v>216</v>
       </c>
     </row>
   </sheetData>
